--- a/design-document/ScreenFee.xlsx
+++ b/design-document/ScreenFee.xlsx
@@ -9,19 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9187" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9187" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemFee" sheetId="5" r:id="rId1"/>
-    <sheet name="CheckConditionTableFee" sheetId="4" r:id="rId2"/>
-    <sheet name="DefinitionFee" sheetId="3" r:id="rId3"/>
-    <sheet name="CheckConditionFee" sheetId="2" r:id="rId4"/>
+    <sheet name="01_Screen Layout" sheetId="7" r:id="rId1"/>
+    <sheet name="02_ItemFee" sheetId="5" r:id="rId2"/>
+    <sheet name="03_DefinitionFee" sheetId="3" r:id="rId3"/>
+    <sheet name="04_CheckConditionTableFee" sheetId="4" r:id="rId4"/>
+    <sheet name="05_CheckConditionFee" sheetId="2" r:id="rId5"/>
+    <sheet name="06_Mapping Class, Action" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$25</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
     <definedName name="SEARCH_RESULT1">#N/A</definedName>
     <definedName name="SEARCH_RESULTLAST">#N/A</definedName>
+    <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
+    <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
   <si>
     <t>Explanation of processing</t>
   </si>
@@ -254,6 +264,51 @@
   </si>
   <si>
     <t>HAUVV</t>
+  </si>
+  <si>
+    <t>Ｎｏ</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>BLO</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin hội phí</t>
+  </si>
+  <si>
+    <t>Lọc theo lớp</t>
+  </si>
+  <si>
+    <t>Save thông tin thay đổi</t>
+  </si>
+  <si>
+    <t>Xuất file Excel</t>
+  </si>
+  <si>
+    <t>Class.cs, Student.cs, Learn.cs  , DbConnect.cs</t>
+  </si>
+  <si>
+    <t>LoadFee.cs</t>
+  </si>
+  <si>
+    <t>Filter.cs</t>
+  </si>
+  <si>
+    <t>SaveFee.cs</t>
+  </si>
+  <si>
+    <t>Export.cs</t>
+  </si>
+  <si>
+    <t>FeeScreen.xaml</t>
   </si>
 </sst>
 </file>
@@ -358,7 +413,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,8 +438,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -550,15 +611,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -585,19 +835,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,6 +931,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -709,6 +979,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,45 +1006,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,6 +1034,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
@@ -796,67 +1084,105 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -870,6 +1196,4729 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 35" descr="PTMS_docs_header"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="31169"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22860" y="15240"/>
+          <a:ext cx="9468273" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428413</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>154093</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 36"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1800013" y="93133"/>
+          <a:ext cx="1783080" cy="160867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>画面項目定義書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>446221</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>263571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 37"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3609340" y="101600"/>
+          <a:ext cx="951681" cy="161971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>システム名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488527</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214207</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>245533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 41"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4603327" y="84667"/>
+          <a:ext cx="3112347" cy="160866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Partner Talent Management System</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419938</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Text Box 42"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1028700" y="93133"/>
+          <a:ext cx="762838" cy="160867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>PTMS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>313267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>474133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Text Box 43"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3609340" y="313267"/>
+          <a:ext cx="960120" cy="160866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>画面ＩＤ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>313267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128684</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>474133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 44"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1028700" y="313267"/>
+          <a:ext cx="2528984" cy="160866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Register worker</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>471593</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>313267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>474133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 45"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4586393" y="313267"/>
+          <a:ext cx="3172454" cy="160866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>PTMS001R</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51647</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317528</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>263571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 46"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51647" y="101600"/>
+          <a:ext cx="951681" cy="161971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>様式番号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>296333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>309061</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Text Box 48"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="43180" y="296333"/>
+          <a:ext cx="951681" cy="160867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>画面名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>518160</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 51"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15240"/>
+          <a:ext cx="9245600" cy="502920"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Picture 44" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Text Box 25"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="273" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Text Box 26"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="157" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>System name</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Text Box 30"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Text Box 31"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Text Box 33"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="156" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Sc een ID</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Text Box 34"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="393" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t> FeeManagement</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Text Box 35"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD007</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Text Box 23"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Text Box 32"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81923</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1701799</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81923" y="702733"/>
+          <a:ext cx="9121343" cy="3321518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8467" y="0"/>
+          <a:ext cx="16061266" cy="575733"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t> Fee Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD007</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9448800" cy="711200"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t> Fee Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD007</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1871133</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18965333" cy="618067"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t> Fee Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD007</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10693400" cy="533400"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t> Fee Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD007</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2455333</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>663787</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9177866" cy="663787"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t> Fee Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD007</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="01_Screen Layout"/>
+      <sheetName val="02_Item Definition"/>
+      <sheetName val="03_Definition"/>
+      <sheetName val="04_check Condition Monadic"/>
+      <sheetName val="05_Check Condition"/>
+      <sheetName val="06_Mapping Class, Action"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,13 +6184,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <cols>
+    <col min="1" max="9" width="9" style="102"/>
+    <col min="10" max="10" width="17.44140625" style="102" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" style="102" customWidth="1"/>
+    <col min="12" max="12" width="0.21875" style="102" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="102" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="102"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="55.5" customHeight="1">
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.39370078740157483" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;9Copyright© 2008 HJ All rights reserved.&amp;R1-&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
@@ -1151,7 +6244,7 @@
     <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="10" width="14.109375" style="1" customWidth="1"/>
@@ -1164,315 +6257,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="103" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="N1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12.85" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="59" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="50" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="45" t="s">
         <v>73</v>
       </c>
       <c r="M2" s="10"/>
-      <c r="N2" s="50"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="12.85" customHeight="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="49">
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="44">
         <v>43296</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:15">
       <c r="N4" s="6"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="18">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="53"/>
+      <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" ht="37.5" customHeight="1">
-      <c r="A6" s="45">
+      <c r="A6" s="40">
         <v>1</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="52"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:15" ht="39.85" customHeight="1">
-      <c r="A7" s="45">
+      <c r="A7" s="40">
         <v>2</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="52"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" ht="33.85" customHeight="1">
-      <c r="A8" s="45">
+      <c r="A8" s="40">
         <v>3</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="52"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" spans="1:15" ht="60.85" customHeight="1">
-      <c r="A9" s="40">
+      <c r="A9" s="35">
         <v>4</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="55"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="6"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="6"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="6"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="E2:K3"/>
     <mergeCell ref="A1:D3"/>
@@ -1481,17 +6579,390 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:X19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
+  <cols>
+    <col min="1" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="1" customWidth="1"/>
+    <col min="14" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="11.109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="102" customFormat="1" ht="56.35" customHeight="1">
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+    </row>
+    <row r="2" spans="1:24" s="102" customFormat="1" ht="26.7" customHeight="1">
+      <c r="A2" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+    </row>
+    <row r="3" spans="1:24" s="102" customFormat="1" ht="4" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="10"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="13"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="13"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="13"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" ht="13.35">
+      <c r="A11" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="10">
+        <v>3</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="25.5" customHeight="1"/>
+    <row r="19" spans="1:13" ht="30" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1499,7 +6970,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
@@ -1523,21 +6994,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="75" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
       <c r="L1" s="11" t="s">
         <v>12</v>
       </c>
@@ -1552,19 +7023,19 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="12.85" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="76" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1573,17 +7044,17 @@
       <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="12.85" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
       <c r="L3" s="9">
         <v>43296</v>
       </c>
@@ -1609,260 +7080,260 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="66" t="s">
+      <c r="L5" s="64"/>
+      <c r="M5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="64"/>
     </row>
     <row r="6" spans="1:15" ht="48.85" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="33" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.850000000000001" customHeight="1">
-      <c r="A7" s="21">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.850000000000001" customHeight="1">
-      <c r="A8" s="21">
+      <c r="A8" s="16">
         <v>2</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="26.7">
-      <c r="A9" s="21">
+      <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="53.35" customHeight="1">
-      <c r="A10" s="21">
+      <c r="A10" s="16">
         <v>4</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1897,435 +7368,19 @@
     <mergeCell ref="E5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
-  <cols>
-    <col min="1" max="9" width="9.109375" style="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="11.109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="13.35">
-      <c r="A1" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-    </row>
-    <row r="2" spans="1:17" ht="12.85" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" ht="12.85" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="15">
-        <v>43296</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="13.35">
-      <c r="A5" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="10"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="13"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="13"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="13"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" ht="13.35">
-      <c r="A14" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-    </row>
-    <row r="18" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1">
-      <c r="A19" s="10">
-        <v>3</v>
-      </c>
-      <c r="B19" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="E2:I3"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="A14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
@@ -2339,19 +7394,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="91" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="11" t="s">
         <v>12</v>
       </c>
@@ -2366,17 +7421,17 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="93" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
@@ -2385,15 +7440,15 @@
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9">
         <v>43296</v>
       </c>
@@ -2417,52 +7472,52 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98" t="s">
+      <c r="E5" s="97"/>
+      <c r="F5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98" t="s">
+      <c r="G5" s="97"/>
+      <c r="H5" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98" t="s">
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="98"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="98"/>
+      <c r="M6" s="97"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7"/>
@@ -2538,5 +7593,416 @@
     <mergeCell ref="F5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.35"/>
+  <cols>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="11" max="24" width="8.88671875" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="102" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+    </row>
+    <row r="2" spans="1:24" s="102" customFormat="1" ht="11.35">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+    </row>
+    <row r="3" spans="1:24" s="102" customFormat="1" ht="70" customHeight="1">
+      <c r="A3" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+    </row>
+    <row r="4" spans="1:24" s="102" customFormat="1" ht="26.7" customHeight="1">
+      <c r="A4" s="110">
+        <v>1</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+    </row>
+    <row r="5" spans="1:24" s="102" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A5" s="110">
+        <v>2</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="127"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+    </row>
+    <row r="6" spans="1:24" s="102" customFormat="1" ht="22" customHeight="1">
+      <c r="A6" s="114">
+        <v>3</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="127"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+    </row>
+    <row r="7" spans="1:24" s="102" customFormat="1" ht="22" customHeight="1">
+      <c r="A7" s="114">
+        <v>4</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="128"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="117"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="117"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="117"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+    </row>
+    <row r="17" spans="6:10" s="117" customFormat="1">
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+    </row>
+    <row r="18" spans="6:10" s="117" customFormat="1">
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+    </row>
+    <row r="19" spans="6:10" s="117" customFormat="1"/>
+    <row r="20" spans="6:10" s="117" customFormat="1"/>
+    <row r="21" spans="6:10" s="117" customFormat="1"/>
+    <row r="22" spans="6:10" s="117" customFormat="1"/>
+    <row r="23" spans="6:10" s="117" customFormat="1"/>
+    <row r="24" spans="6:10" s="117" customFormat="1"/>
+    <row r="25" spans="6:10" s="117" customFormat="1"/>
+    <row r="26" spans="6:10" s="117" customFormat="1"/>
+    <row r="27" spans="6:10" s="117" customFormat="1"/>
+    <row r="28" spans="6:10" s="117" customFormat="1"/>
+    <row r="29" spans="6:10" s="117" customFormat="1"/>
+    <row r="30" spans="6:10" s="117" customFormat="1"/>
+    <row r="31" spans="6:10" s="117" customFormat="1"/>
+    <row r="32" spans="6:10" s="117" customFormat="1"/>
+    <row r="33" s="117" customFormat="1"/>
+    <row r="34" s="117" customFormat="1"/>
+    <row r="35" s="117" customFormat="1"/>
+    <row r="36" s="117" customFormat="1"/>
+    <row r="37" s="117" customFormat="1"/>
+    <row r="38" s="117" customFormat="1"/>
+    <row r="39" s="117" customFormat="1"/>
+    <row r="40" s="117" customFormat="1"/>
+    <row r="41" s="117" customFormat="1"/>
+    <row r="42" s="117" customFormat="1"/>
+    <row r="43" s="117" customFormat="1"/>
+    <row r="44" s="117" customFormat="1"/>
+    <row r="45" s="117" customFormat="1"/>
+    <row r="46" s="117" customFormat="1"/>
+    <row r="47" s="117" customFormat="1"/>
+    <row r="48" s="117" customFormat="1"/>
+    <row r="49" s="117" customFormat="1"/>
+    <row r="50" s="117" customFormat="1"/>
+    <row r="51" s="117" customFormat="1"/>
+    <row r="52" s="117" customFormat="1"/>
+    <row r="53" s="117" customFormat="1"/>
+    <row r="54" s="117" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/design-document/ScreenFee.xlsx
+++ b/design-document/ScreenFee.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9187" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533" tabRatio="872" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="7" r:id="rId1"/>
@@ -17,11 +17,7 @@
     <sheet name="03_DefinitionFee" sheetId="3" r:id="rId3"/>
     <sheet name="04_CheckConditionTableFee" sheetId="4" r:id="rId4"/>
     <sheet name="05_CheckConditionFee" sheetId="2" r:id="rId5"/>
-    <sheet name="06_Mapping Class, Action" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
@@ -30,8 +26,7 @@
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="132">
   <si>
     <t>Explanation of processing</t>
   </si>
@@ -121,24 +116,9 @@
     <t>Screen Fee</t>
   </si>
   <si>
-    <t>Khi nhập fee &lt; 0 hay là chữ phải thông báo nhay cho admin</t>
-  </si>
-  <si>
     <t>－</t>
   </si>
   <si>
-    <t>Dialog thông báo lỗi khi admin nhập sai dữ liệu</t>
-  </si>
-  <si>
-    <t>dgvFee</t>
-  </si>
-  <si>
-    <t>Datagrid show Fee of Student</t>
-  </si>
-  <si>
-    <t>Dialog thông báo export thất bại.</t>
-  </si>
-  <si>
     <t>btnExport</t>
   </si>
   <si>
@@ -166,24 +146,6 @@
     <t>Minimum value</t>
   </si>
   <si>
-    <t>Email address</t>
-  </si>
-  <si>
-    <t>Full-width Kana</t>
-  </si>
-  <si>
-    <t>Double-byte character</t>
-  </si>
-  <si>
-    <t>Half size alphanumeric characters</t>
-  </si>
-  <si>
-    <t>Half size numeral symbol Yes</t>
-  </si>
-  <si>
-    <t>Half size</t>
-  </si>
-  <si>
     <t>Processing on error</t>
   </si>
   <si>
@@ -193,18 +155,6 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Have to</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Datagirdview hiển thị dữ liệu phí hội viện và cho phép admin có thể chỉnh sửa phí hàng tháng của hội viên</t>
-  </si>
-  <si>
-    <t>IO</t>
-  </si>
-  <si>
-    <t>datagrid</t>
-  </si>
-  <si>
     <t>Button Xuất danh sách phí hội viện theo filter</t>
   </si>
   <si>
@@ -235,9 +185,6 @@
     <t>I/O/IO</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Initial value</t>
   </si>
   <si>
@@ -248,9 +195,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
   </si>
   <si>
     <t>Symbol Name</t>
@@ -263,59 +207,239 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>HAUVV</t>
-  </si>
-  <si>
     <t>Ｎｏ</t>
   </si>
   <si>
     <t>Action</t>
   </si>
   <si>
-    <t>DAO</t>
-  </si>
-  <si>
-    <t>BLO</t>
-  </si>
-  <si>
     <t>VIEW</t>
   </si>
   <si>
-    <t>Hiển thị thông tin hội phí</t>
-  </si>
-  <si>
     <t>Lọc theo lớp</t>
   </si>
   <si>
-    <t>Save thông tin thay đổi</t>
-  </si>
-  <si>
-    <t>Xuất file Excel</t>
-  </si>
-  <si>
-    <t>Class.cs, Student.cs, Learn.cs  , DbConnect.cs</t>
-  </si>
-  <si>
-    <t>LoadFee.cs</t>
-  </si>
-  <si>
-    <t>Filter.cs</t>
-  </si>
-  <si>
-    <t>SaveFee.cs</t>
-  </si>
-  <si>
-    <t>Export.cs</t>
-  </si>
-  <si>
     <t>FeeScreen.xaml</t>
+  </si>
+  <si>
+    <t>PTMS-MS001-E</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Tên Hội Viên</t>
+  </si>
+  <si>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>Loại Phí</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại -3</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại -2</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại -1</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại + 1</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại + 2</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại + 3</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại + 4</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại + 5</t>
+  </si>
+  <si>
+    <t>Tháng Hiện Tại + 6</t>
+  </si>
+  <si>
+    <t>Tổng Hội Phí (Theo hàng)</t>
+  </si>
+  <si>
+    <t>Tổng Hội Phí (Theo Cột)</t>
+  </si>
+  <si>
+    <t>Loại phí hiển thị 2 loại phí: Phí hội viên, phí khác</t>
+  </si>
+  <si>
+    <t>Hội phí tháng trước hiện tại 3 tháng</t>
+  </si>
+  <si>
+    <t>Hội phí tháng trước hiện tại 2 tháng</t>
+  </si>
+  <si>
+    <t>Hội phí tháng trước hiện tại 1 tháng</t>
+  </si>
+  <si>
+    <t>Hội phí tháng hiện tại</t>
+  </si>
+  <si>
+    <t>Hội phí tháng sau hiện tại 1 tháng</t>
+  </si>
+  <si>
+    <t>Hội phí tháng sau hiện tại 2 tháng</t>
+  </si>
+  <si>
+    <t>Hội phí tháng sau hiện tại 3 tháng</t>
+  </si>
+  <si>
+    <t>Hội phí tháng sau hiện tại 4 tháng</t>
+  </si>
+  <si>
+    <t>Hội phí tháng sau hiện tại 5 tháng</t>
+  </si>
+  <si>
+    <t>Hội phí tháng sau hiện tại 6 tháng</t>
+  </si>
+  <si>
+    <t>Tổng hội phí theo từng tháng</t>
+  </si>
+  <si>
+    <t>Tổng hội phí theo từng hội viên và loại phí</t>
+  </si>
+  <si>
+    <t>nameClass</t>
+  </si>
+  <si>
+    <t>nameHV</t>
+  </si>
+  <si>
+    <t>typeFee</t>
+  </si>
+  <si>
+    <t>monthHT3A</t>
+  </si>
+  <si>
+    <t>monthHT2A</t>
+  </si>
+  <si>
+    <t>monthHT1A</t>
+  </si>
+  <si>
+    <t>monthHT</t>
+  </si>
+  <si>
+    <t>monthHT1P</t>
+  </si>
+  <si>
+    <t>monthHT2P</t>
+  </si>
+  <si>
+    <t>monthHT3P</t>
+  </si>
+  <si>
+    <t>monthHT4P</t>
+  </si>
+  <si>
+    <t>monthHT5P</t>
+  </si>
+  <si>
+    <t>monthHT6P</t>
+  </si>
+  <si>
+    <t>totalFeeS</t>
+  </si>
+  <si>
+    <t>totalFeeM</t>
+  </si>
+  <si>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>value &gt;= 0</t>
+  </si>
+  <si>
+    <t>xuất file thành công hay không</t>
+  </si>
+  <si>
+    <t>Hiển thị SKU</t>
+  </si>
+  <si>
+    <t>Hiển thị tên hội viên</t>
+  </si>
+  <si>
+    <t>Hiển thị tên lớp</t>
+  </si>
+  <si>
+    <t>Load Data</t>
+  </si>
+  <si>
+    <t>Load dữ liệu từ cơ sỡ dữ liệu các thông tin SKU, Tên Hội Viên, Lớp, Loại Phí, Hội Phí 10 Tháng bao gồm tháng hiện tại, 3 tháng trước và 6 tháng sau</t>
+  </si>
+  <si>
+    <t>Danh sách tên lớp load từ CSDL lên sẽ làm item cho combobox</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}: Tháng x  </t>
+  </si>
+  <si>
+    <t>3. Mapping Action and Class</t>
+  </si>
+  <si>
+    <t>DAO Layer</t>
+  </si>
+  <si>
+    <t>BLO Layer</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Hiển thị thông hội phí</t>
+  </si>
+  <si>
+    <t>Lưu thông thin thay đổi</t>
+  </si>
+  <si>
+    <t>Xuất file excel</t>
+  </si>
+  <si>
+    <t>ID_Class</t>
+  </si>
+  <si>
+    <t>Learn_Model.cs, AccessDB_DAO.cs, LoadFee_DAO.cs,Class_Model.cs,Student_Model.cs</t>
+  </si>
+  <si>
+    <t>Learn_Model.cs, AccessDB_DAO.cs, FilterFee_DAO.cs,Class_Model.cs,Student_Model.cs</t>
+  </si>
+  <si>
+    <t>Learn_Model.cs, AccessDB_DAO.cs, SaveFee_DAO.cs,Class_Model.cs,Student_Model.cs</t>
+  </si>
+  <si>
+    <t>ManageFee_BLO.cs</t>
+  </si>
+  <si>
+    <t>Learn_Model.cs, AccessDB_DAO.cs,ExportExcel_DAO.cs,Class_Model.cs,Student_Model.cs</t>
+  </si>
+  <si>
+    <t>PTMS-MS010-E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,13 +504,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -400,17 +517,14 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="9"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="6">
@@ -445,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -611,192 +725,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -808,18 +736,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,9 +756,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,12 +765,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,12 +772,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,69 +780,178 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,6 +961,33 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,32 +997,119 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,6 +1120,30 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,48 +1171,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,114 +1189,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2658,7 +2699,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
@@ -2673,7 +2714,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="8467" y="0"/>
-          <a:ext cx="16061266" cy="575733"/>
+          <a:ext cx="15826153" cy="579640"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3323,7 +3364,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9448800" cy="711200"/>
+          <a:ext cx="13174134" cy="711200"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3945,6 +3986,130 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1092992" cy="2331279"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7967133" y="5435600"/>
+          <a:ext cx="1092992" cy="2331279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Fee_January</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_February</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_March</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_June</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_July</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_May</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_April</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_August</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_September</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_October</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_November</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fee_December</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>NgayCapNhat</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3953,15 +4118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1784</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1871133</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>155087</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3972,10 +4137,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="18965333" cy="618067"/>
-          <a:chOff x="0" y="2"/>
-          <a:chExt cx="1121" cy="52"/>
+          <a:off x="1784" y="28087"/>
+          <a:ext cx="10625999" cy="635000"/>
+          <a:chOff x="3" y="6"/>
+          <a:chExt cx="1125" cy="52"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -4000,7 +4165,7 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="0" y="2"/>
+            <a:off x="7" y="6"/>
             <a:ext cx="1121" cy="52"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4170,7 +4335,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="727" y="9"/>
+            <a:off x="731" y="13"/>
             <a:ext cx="384" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4229,7 +4394,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="163" y="10"/>
+            <a:off x="167" y="15"/>
             <a:ext cx="122" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4353,7 +4518,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="161" y="34"/>
+            <a:off x="167" y="38"/>
             <a:ext cx="394" cy="19"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4412,7 +4577,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="725" y="33"/>
+            <a:off x="732" y="37"/>
             <a:ext cx="393" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4623,7 +4788,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10693400" cy="533400"/>
+          <a:ext cx="12031134" cy="601133"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5245,680 +5410,56 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7738533" y="1600199"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2455333</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>663787</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 199"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9177866" cy="663787"/>
-          <a:chOff x="0" y="2"/>
-          <a:chExt cx="1121" cy="52"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="32468"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="2"/>
-            <a:ext cx="1121" cy="52"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 201"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="287" y="10"/>
-            <a:ext cx="274" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen item definition</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 202"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="565" y="11"/>
-            <a:ext cx="155" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>system-name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Text Box 203"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="727" y="9"/>
-            <a:ext cx="384" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>Aidiko dojo's Member Management</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Text Box 204"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="163" y="10"/>
-            <a:ext cx="122" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 205"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="566" y="34"/>
-            <a:ext cx="155" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen ID</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Text Box 206"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="161" y="34"/>
-            <a:ext cx="394" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t> Fee Management</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Text Box 207"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="725" y="33"/>
-            <a:ext cx="393" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD007</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Text Box 208"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4" y="11"/>
-            <a:ext cx="154" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Form number</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Text Box 209"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3" y="34"/>
-            <a:ext cx="154" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>screen name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="01_Screen Layout"/>
-      <sheetName val="02_Item Definition"/>
-      <sheetName val="03_Definition"/>
-      <sheetName val="04_check Condition Monadic"/>
-      <sheetName val="05_Check Condition"/>
-      <sheetName val="06_Mapping Class, Action"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6192,28 +5733,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
-    <col min="1" max="9" width="9" style="102"/>
-    <col min="10" max="10" width="17.44140625" style="102" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" style="102" customWidth="1"/>
-    <col min="12" max="12" width="0.21875" style="102" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="102" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="102"/>
+    <col min="1" max="9" width="9" style="28"/>
+    <col min="10" max="10" width="17.44140625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" style="28" customWidth="1"/>
+    <col min="12" max="12" width="0.33203125" style="28" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="28" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A1" s="118"/>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6229,733 +5770,1439 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:N16"/>
+    <sheetView zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="45"/>
+    <col min="2" max="2" width="17" style="41" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="45" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="45" customWidth="1"/>
     <col min="9" max="10" width="14.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="12" width="10.44140625" style="59" customWidth="1"/>
+    <col min="13" max="14" width="16" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.35">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="46" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="13" customHeight="1">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" ht="13" customHeight="1">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="47"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="92"/>
+    </row>
+    <row r="6" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A6" s="48">
+        <v>1</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="91"/>
+    </row>
+    <row r="7" spans="1:14" ht="40" customHeight="1">
+      <c r="A7" s="48">
+        <v>2</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="91"/>
+    </row>
+    <row r="8" spans="1:14" ht="34" customHeight="1">
+      <c r="A8" s="48">
+        <v>3</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="91"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="48">
+        <v>4</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="102"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="48">
+        <v>5</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="99"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="48">
+        <v>6</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="99"/>
+    </row>
+    <row r="12" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A12" s="48">
+        <v>7</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="97"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="48">
+        <v>8</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="99"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="48">
+        <v>9</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="99"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="48">
+        <v>10</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="99"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="48">
+        <v>11</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="99"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="48">
         <v>12</v>
       </c>
-      <c r="M1" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.85" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="45" t="s">
+      <c r="B17" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="99"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="48">
+        <v>13</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="89"/>
+      <c r="D18" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="99"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
+      <c r="A19" s="48">
+        <v>14</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="89"/>
+      <c r="D19" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="99"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="48">
+        <v>15</v>
+      </c>
+      <c r="B20" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.85" customHeight="1">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="44">
-        <v>43296</v>
-      </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="18">
-      <c r="A5" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="59"/>
-    </row>
-    <row r="6" spans="1:15" ht="37.5" customHeight="1">
-      <c r="A6" s="40">
-        <v>1</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="58"/>
-    </row>
-    <row r="7" spans="1:15" ht="39.85" customHeight="1">
-      <c r="A7" s="40">
-        <v>2</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="58"/>
-    </row>
-    <row r="8" spans="1:15" ht="33.85" customHeight="1">
-      <c r="A8" s="40">
-        <v>3</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="58"/>
-    </row>
-    <row r="9" spans="1:15" ht="60.85" customHeight="1">
-      <c r="A9" s="35">
-        <v>4</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="61"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="99"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
+      <c r="A21" s="48">
+        <v>16</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="89"/>
+      <c r="D21" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="99"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="48">
+        <v>17</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="89"/>
+      <c r="D22" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="99"/>
+    </row>
+    <row r="23" spans="1:13" ht="30.85" customHeight="1">
+      <c r="A23" s="48">
+        <v>18</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="89"/>
+      <c r="D23" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="97"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="48">
+        <v>19</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="99"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N8:O8"/>
+  <mergeCells count="43">
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="E2:K3"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="4" width="9.109375" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9.109375" style="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="48" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1"/>
+    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="1" customWidth="1"/>
     <col min="14" max="17" width="9.109375" style="1"/>
     <col min="18" max="18" width="11.109375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="102" customFormat="1" ht="56.35" customHeight="1">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-    </row>
-    <row r="2" spans="1:24" s="102" customFormat="1" ht="26.7" customHeight="1">
-      <c r="A2" s="84" t="s">
+    <row r="1" spans="1:24" s="28" customFormat="1" ht="56.5" customHeight="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+    </row>
+    <row r="2" spans="1:24" s="28" customFormat="1" ht="26.7" customHeight="1">
+      <c r="A2" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-    </row>
-    <row r="3" spans="1:24" s="102" customFormat="1" ht="4" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+    </row>
+    <row r="3" spans="1:24" s="28" customFormat="1" ht="4" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="10"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="133"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="13"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="13"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="13"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" ht="13.35">
+      <c r="A8" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:24" ht="13.35">
-      <c r="A11" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="10">
+      <c r="A14" s="32">
+        <v>4</v>
+      </c>
+      <c r="B14" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="126"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1"/>
+    <row r="18" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" customHeight="1"/>
+    <row r="20" spans="1:13" ht="30" customHeight="1">
+      <c r="A20" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="106"/>
+      <c r="L20" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="106"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.35" customHeight="1">
+      <c r="A21" s="115"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="113"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="110"/>
+    </row>
+    <row r="22" spans="1:13" ht="26" customHeight="1">
+      <c r="A22" s="77">
         <v>1</v>
       </c>
-      <c r="B14" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="10">
+      <c r="B22" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="106"/>
+      <c r="L22" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="106"/>
+    </row>
+    <row r="23" spans="1:13" ht="26" customHeight="1">
+      <c r="A23" s="40">
         <v>2</v>
       </c>
-      <c r="B15" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="10">
+      <c r="B23" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="113"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+    </row>
+    <row r="24" spans="1:13" ht="184" customHeight="1">
+      <c r="A24" s="40">
         <v>3</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="25.5" customHeight="1"/>
-    <row r="19" spans="1:13" ht="30" customHeight="1"/>
+      <c r="B24" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+    </row>
+    <row r="25" spans="1:13" ht="26" customHeight="1">
+      <c r="A25" s="40">
+        <v>3</v>
+      </c>
+      <c r="B25" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="110"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="75"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="37">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:M13"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:M5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F8:M8"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:M7"/>
     <mergeCell ref="F4:M4"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="J22:K25"/>
+    <mergeCell ref="L22:M25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6965,407 +7212,621 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" ht="13" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.7">
+      <c r="A5" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="136"/>
+      <c r="F5" s="134" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
+    </row>
+    <row r="6" spans="1:8" ht="49" customHeight="1">
+      <c r="A6" s="138"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19" customHeight="1">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.35" customHeight="1">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13">
+        <v>10</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13">
+        <v>11</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13">
+        <v>12</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13">
+        <v>13</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13">
         <v>14</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.85" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.85" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="9">
-        <v>43296</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
-    </row>
-    <row r="6" spans="1:15" ht="48.85" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="24" t="s">
+      <c r="B20" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="18.850000000000001" customHeight="1">
-      <c r="A7" s="16">
-        <v>1</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18.850000000000001" customHeight="1">
-      <c r="A8" s="16">
-        <v>2</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="26.7">
-      <c r="A9" s="16">
-        <v>3</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="53.35" customHeight="1">
-      <c r="A10" s="16">
-        <v>4</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="2"/>
+      <c r="E20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13">
+        <v>15</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13">
+        <v>16</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13">
+        <v>17</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="13">
+        <v>18</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13">
+        <v>19</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="G27" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K3"/>
+  <mergeCells count="5">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7375,212 +7836,543 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
   <cols>
-    <col min="1" max="7" width="9.109375" style="1"/>
-    <col min="8" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.109375" style="1"/>
+    <col min="6" max="7" width="9.109375" style="41"/>
+    <col min="8" max="9" width="10.6640625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="27.77734375" style="1" customWidth="1"/>
     <col min="12" max="13" width="14.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="85" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="11" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="88" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="10" t="s">
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="9">
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="70">
         <v>43296</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97" t="s">
+      <c r="E5" s="160"/>
+      <c r="F5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="142" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="160"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="92"/>
+      <c r="J6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97" t="s">
+      <c r="M6" s="92"/>
+    </row>
+    <row r="7" spans="1:13" ht="36.85" customHeight="1">
+      <c r="A7" s="73">
+        <v>1</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="164" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="164"/>
+      <c r="F7" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="165"/>
+      <c r="H7" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="164"/>
+      <c r="J7" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="164" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="166"/>
+    </row>
+    <row r="8" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A8" s="73">
+        <v>2</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="161" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="161"/>
+      <c r="F8" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="100"/>
+      <c r="J8" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="169"/>
+    </row>
+    <row r="9" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A9" s="73">
         <v>3</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="97"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="2"/>
+      <c r="B9" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="161" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="161"/>
+      <c r="F9" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="100"/>
+      <c r="J9" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="167"/>
+    </row>
+    <row r="10" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A10" s="73">
+        <v>4</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="161" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="161"/>
+      <c r="F10" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="100"/>
+      <c r="J10" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="167"/>
+    </row>
+    <row r="11" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A11" s="73">
+        <v>5</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="161" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="161"/>
+      <c r="F11" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="100"/>
+      <c r="J11" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="167"/>
+    </row>
+    <row r="12" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A12" s="73">
+        <v>6</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="161" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="161"/>
+      <c r="F12" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="100"/>
+      <c r="J12" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="167"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A13" s="73">
+        <v>7</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="161"/>
+      <c r="F13" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="100"/>
+      <c r="J13" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="167"/>
+    </row>
+    <row r="14" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A14" s="73">
+        <v>8</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="161"/>
+      <c r="F14" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="100"/>
+      <c r="J14" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="167"/>
+    </row>
+    <row r="15" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A15" s="73">
+        <v>9</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="161" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="161"/>
+      <c r="F15" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="100"/>
+      <c r="J15" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="167"/>
+    </row>
+    <row r="16" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A16" s="73">
+        <v>10</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="100"/>
+      <c r="J16" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="167"/>
+    </row>
+    <row r="17" spans="1:13" ht="23.35" customHeight="1">
+      <c r="A17" s="73">
+        <v>11</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="100"/>
+      <c r="J17" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="167"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="163"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="67">
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="K8:K17"/>
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="L6:M6"/>
@@ -7591,416 +8383,11 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
     <mergeCell ref="F5:G6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35"/>
-  <cols>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
-    <col min="11" max="24" width="8.88671875" style="117"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="102" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-    </row>
-    <row r="2" spans="1:24" s="102" customFormat="1" ht="11.35">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-    </row>
-    <row r="3" spans="1:24" s="102" customFormat="1" ht="70" customHeight="1">
-      <c r="A3" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-    </row>
-    <row r="4" spans="1:24" s="102" customFormat="1" ht="26.7" customHeight="1">
-      <c r="A4" s="110">
-        <v>1</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-    </row>
-    <row r="5" spans="1:24" s="102" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="110">
-        <v>2</v>
-      </c>
-      <c r="B5" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-    </row>
-    <row r="6" spans="1:24" s="102" customFormat="1" ht="22" customHeight="1">
-      <c r="A6" s="114">
-        <v>3</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-    </row>
-    <row r="7" spans="1:24" s="102" customFormat="1" ht="22" customHeight="1">
-      <c r="A7" s="114">
-        <v>4</v>
-      </c>
-      <c r="B7" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-    </row>
-    <row r="17" spans="6:10" s="117" customFormat="1">
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-    </row>
-    <row r="18" spans="6:10" s="117" customFormat="1">
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-    </row>
-    <row r="19" spans="6:10" s="117" customFormat="1"/>
-    <row r="20" spans="6:10" s="117" customFormat="1"/>
-    <row r="21" spans="6:10" s="117" customFormat="1"/>
-    <row r="22" spans="6:10" s="117" customFormat="1"/>
-    <row r="23" spans="6:10" s="117" customFormat="1"/>
-    <row r="24" spans="6:10" s="117" customFormat="1"/>
-    <row r="25" spans="6:10" s="117" customFormat="1"/>
-    <row r="26" spans="6:10" s="117" customFormat="1"/>
-    <row r="27" spans="6:10" s="117" customFormat="1"/>
-    <row r="28" spans="6:10" s="117" customFormat="1"/>
-    <row r="29" spans="6:10" s="117" customFormat="1"/>
-    <row r="30" spans="6:10" s="117" customFormat="1"/>
-    <row r="31" spans="6:10" s="117" customFormat="1"/>
-    <row r="32" spans="6:10" s="117" customFormat="1"/>
-    <row r="33" s="117" customFormat="1"/>
-    <row r="34" s="117" customFormat="1"/>
-    <row r="35" s="117" customFormat="1"/>
-    <row r="36" s="117" customFormat="1"/>
-    <row r="37" s="117" customFormat="1"/>
-    <row r="38" s="117" customFormat="1"/>
-    <row r="39" s="117" customFormat="1"/>
-    <row r="40" s="117" customFormat="1"/>
-    <row r="41" s="117" customFormat="1"/>
-    <row r="42" s="117" customFormat="1"/>
-    <row r="43" s="117" customFormat="1"/>
-    <row r="44" s="117" customFormat="1"/>
-    <row r="45" s="117" customFormat="1"/>
-    <row r="46" s="117" customFormat="1"/>
-    <row r="47" s="117" customFormat="1"/>
-    <row r="48" s="117" customFormat="1"/>
-    <row r="49" s="117" customFormat="1"/>
-    <row r="50" s="117" customFormat="1"/>
-    <row r="51" s="117" customFormat="1"/>
-    <row r="52" s="117" customFormat="1"/>
-    <row r="53" s="117" customFormat="1"/>
-    <row r="54" s="117" customFormat="1"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/design-document/ScreenFee.xlsx
+++ b/design-document/ScreenFee.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533" tabRatio="872" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533" tabRatio="872"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="05_CheckConditionFee" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
     <definedName name="SEARCH_RESULT1">#N/A</definedName>
     <definedName name="SEARCH_RESULTLAST">#N/A</definedName>
@@ -943,6 +943,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,6 +985,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,59 +1018,92 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,81 +1111,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,9 +1132,36 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,33 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2650,34 +2650,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>81923</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1701799</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11051</xdr:rowOff>
+      <xdr:colOff>750358</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>40216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="23" name="Picture 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81923" y="702733"/>
-          <a:ext cx="9121343" cy="3321518"/>
+          <a:off x="812800" y="787399"/>
+          <a:ext cx="7439025" cy="6000750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5727,7 +5733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -5796,21 +5802,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="53" t="s">
         <v>10</v>
       </c>
@@ -5822,35 +5828,35 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="13" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="93" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="54"/>
       <c r="M2" s="22"/>
       <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="13" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="55"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -5875,10 +5881,10 @@
       <c r="A5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="30" t="s">
         <v>53</v>
       </c>
@@ -5903,19 +5909,19 @@
       <c r="K5" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="92" t="s">
+      <c r="L5" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="92"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:14" ht="37.5" customHeight="1">
       <c r="A6" s="48">
         <v>1</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="60" t="s">
         <v>31</v>
       </c>
@@ -5940,19 +5946,19 @@
       <c r="K6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="90" t="s">
+      <c r="L6" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="40" customHeight="1">
       <c r="A7" s="48">
         <v>2</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="60" t="s">
         <v>29</v>
       </c>
@@ -5977,19 +5983,19 @@
       <c r="K7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="91"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="1:14" ht="34" customHeight="1">
       <c r="A8" s="48">
         <v>3</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="60" t="s">
         <v>27</v>
       </c>
@@ -6014,19 +6020,19 @@
       <c r="K8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="90" t="s">
+      <c r="L8" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="91"/>
+      <c r="M8" s="87"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="48">
         <v>4</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="46" t="s">
         <v>62</v>
       </c>
@@ -6051,19 +6057,19 @@
       <c r="K9" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="102"/>
+      <c r="M9" s="82"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="48">
         <v>5</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="46" t="s">
         <v>92</v>
       </c>
@@ -6088,19 +6094,19 @@
       <c r="K10" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="98" t="s">
+      <c r="L10" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="99"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="48">
         <v>6</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="46" t="s">
         <v>91</v>
       </c>
@@ -6125,19 +6131,19 @@
       <c r="K11" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="98" t="s">
+      <c r="L11" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="M11" s="99"/>
+      <c r="M11" s="79"/>
     </row>
     <row r="12" spans="1:14" ht="28.5" customHeight="1">
       <c r="A12" s="48">
         <v>7</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="46" t="s">
         <v>93</v>
       </c>
@@ -6162,19 +6168,19 @@
       <c r="K12" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="96" t="s">
+      <c r="L12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="97"/>
+      <c r="M12" s="84"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="48">
         <v>8</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="46" t="s">
         <v>94</v>
       </c>
@@ -6199,19 +6205,19 @@
       <c r="K13" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="98" t="s">
+      <c r="L13" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="99"/>
+      <c r="M13" s="79"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="48">
         <v>9</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="46" t="s">
         <v>95</v>
       </c>
@@ -6236,19 +6242,19 @@
       <c r="K14" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="98" t="s">
+      <c r="L14" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="99"/>
+      <c r="M14" s="79"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="48">
         <v>10</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="46" t="s">
         <v>96</v>
       </c>
@@ -6273,19 +6279,19 @@
       <c r="K15" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="98" t="s">
+      <c r="L15" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="99"/>
+      <c r="M15" s="79"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="48">
         <v>11</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="46" t="s">
         <v>97</v>
       </c>
@@ -6310,19 +6316,19 @@
       <c r="K16" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="98" t="s">
+      <c r="L16" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="99"/>
+      <c r="M16" s="79"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="48">
         <v>12</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="46" t="s">
         <v>98</v>
       </c>
@@ -6347,19 +6353,19 @@
       <c r="K17" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="98" t="s">
+      <c r="L17" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="99"/>
+      <c r="M17" s="79"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="48">
         <v>13</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="89"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="46" t="s">
         <v>99</v>
       </c>
@@ -6384,19 +6390,19 @@
       <c r="K18" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="98" t="s">
+      <c r="L18" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="99"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="48">
         <v>14</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="46" t="s">
         <v>100</v>
       </c>
@@ -6421,19 +6427,19 @@
       <c r="K19" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="98" t="s">
+      <c r="L19" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="99"/>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="48">
         <v>15</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="46" t="s">
         <v>101</v>
       </c>
@@ -6458,19 +6464,19 @@
       <c r="K20" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="98" t="s">
+      <c r="L20" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="99"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="48">
         <v>16</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="46" t="s">
         <v>102</v>
       </c>
@@ -6495,19 +6501,19 @@
       <c r="K21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="98" t="s">
+      <c r="L21" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="99"/>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="48">
         <v>17</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="89"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="46" t="s">
         <v>103</v>
       </c>
@@ -6532,19 +6538,19 @@
       <c r="K22" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="98" t="s">
+      <c r="L22" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="99"/>
+      <c r="M22" s="79"/>
     </row>
     <row r="23" spans="1:13" ht="30.85" customHeight="1">
       <c r="A23" s="48">
         <v>18</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="46" t="s">
         <v>104</v>
       </c>
@@ -6569,19 +6575,19 @@
       <c r="K23" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="96" t="s">
+      <c r="L23" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="97"/>
+      <c r="M23" s="84"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="48">
         <v>19</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="100"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="46" t="s">
         <v>105</v>
       </c>
@@ -6606,10 +6612,10 @@
       <c r="K24" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="98" t="s">
+      <c r="L24" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="99"/>
+      <c r="M24" s="79"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="49"/>
@@ -6628,6 +6634,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="L9:M9"/>
@@ -6644,33 +6677,6 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6735,21 +6741,21 @@
       <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:24" s="28" customFormat="1" ht="26.7" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="129"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="27"/>
@@ -6792,37 +6798,37 @@
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117" t="s">
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="8"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="133"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="117"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="5"/>
@@ -6855,13 +6861,13 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="13.35">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -6890,106 +6896,106 @@
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="127" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124" t="s">
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="126"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="3"/>
@@ -7014,140 +7020,140 @@
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1"/>
     <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="103" t="s">
+      <c r="C20" s="121"/>
+      <c r="D20" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105" t="s">
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="106"/>
-      <c r="L20" s="105" t="s">
+      <c r="K20" s="121"/>
+      <c r="L20" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="106"/>
+      <c r="M20" s="121"/>
     </row>
     <row r="21" spans="1:13" ht="15.35" customHeight="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="112" t="s">
+      <c r="A21" s="125"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="112" t="s">
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="110"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
     </row>
     <row r="22" spans="1:13" ht="26" customHeight="1">
       <c r="A22" s="77">
         <v>1</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="103" t="s">
+      <c r="C22" s="128"/>
+      <c r="D22" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="103" t="s">
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105" t="s">
+      <c r="I22" s="128"/>
+      <c r="J22" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="106"/>
-      <c r="L22" s="105" t="s">
+      <c r="K22" s="121"/>
+      <c r="L22" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="106"/>
+      <c r="M22" s="121"/>
     </row>
     <row r="23" spans="1:13" ht="26" customHeight="1">
       <c r="A23" s="40">
         <v>2</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="103" t="s">
+      <c r="C23" s="128"/>
+      <c r="D23" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="112" t="s">
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="108"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="133"/>
     </row>
     <row r="24" spans="1:13" ht="184" customHeight="1">
       <c r="A24" s="40">
         <v>3</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="103" t="s">
+      <c r="C24" s="128"/>
+      <c r="D24" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="133"/>
     </row>
     <row r="25" spans="1:13" ht="26" customHeight="1">
       <c r="A25" s="40">
         <v>3</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="103" t="s">
+      <c r="C25" s="128"/>
+      <c r="D25" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="110"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="75"/>
@@ -7166,6 +7172,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="J22:K25"/>
+    <mergeCell ref="L22:M25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J20:K21"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:M14"/>
     <mergeCell ref="B13:E13"/>
@@ -7182,27 +7209,6 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:M11"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="J22:K25"/>
-    <mergeCell ref="L22:M25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7840,7 +7846,7 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -7856,19 +7862,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="154" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
       <c r="J1" s="69" t="s">
         <v>12</v>
       </c>
@@ -7883,17 +7889,17 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="156" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
       <c r="J2" s="52" t="s">
         <v>8</v>
       </c>
@@ -7902,15 +7908,15 @@
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="70">
         <v>43296</v>
       </c>
@@ -7934,375 +7940,375 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160" t="s">
+      <c r="C5" s="169"/>
+      <c r="D5" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="92" t="s">
+      <c r="E5" s="169"/>
+      <c r="F5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="142" t="s">
+      <c r="G5" s="88"/>
+      <c r="H5" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="144"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="153"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="160"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92" t="s">
+      <c r="A6" s="169"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="92"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="30" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="1:13" ht="36.85" customHeight="1">
       <c r="A7" s="73">
         <v>1</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="164" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="164"/>
-      <c r="F7" s="165" t="s">
+      <c r="E7" s="143"/>
+      <c r="F7" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="164" t="s">
+      <c r="G7" s="144"/>
+      <c r="H7" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="164"/>
+      <c r="I7" s="143"/>
       <c r="J7" s="72" t="s">
         <v>131</v>
       </c>
       <c r="K7" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="164" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="166"/>
+      <c r="L7" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="145"/>
     </row>
     <row r="8" spans="1:13" ht="23.35" customHeight="1">
       <c r="A8" s="73">
         <v>2</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="161" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="100" t="s">
+      <c r="E8" s="150"/>
+      <c r="F8" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100" t="s">
+      <c r="G8" s="80"/>
+      <c r="H8" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="100"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="141" t="s">
+      <c r="K8" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="168" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="169"/>
+      <c r="L8" s="148" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="149"/>
     </row>
     <row r="9" spans="1:13" ht="23.35" customHeight="1">
       <c r="A9" s="73">
         <v>3</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="161" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="100" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100" t="s">
+      <c r="G9" s="80"/>
+      <c r="H9" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="100"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="167"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="147"/>
     </row>
     <row r="10" spans="1:13" ht="23.35" customHeight="1">
       <c r="A10" s="73">
         <v>4</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="161" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="100" t="s">
+      <c r="E10" s="150"/>
+      <c r="F10" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100" t="s">
+      <c r="G10" s="80"/>
+      <c r="H10" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="100"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="167"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="147"/>
     </row>
     <row r="11" spans="1:13" ht="23.35" customHeight="1">
       <c r="A11" s="73">
         <v>5</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="161" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="100" t="s">
+      <c r="E11" s="150"/>
+      <c r="F11" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100" t="s">
+      <c r="G11" s="80"/>
+      <c r="H11" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="100"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="167"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="147"/>
     </row>
     <row r="12" spans="1:13" ht="23.35" customHeight="1">
       <c r="A12" s="73">
         <v>6</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="161" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="100" t="s">
+      <c r="E12" s="150"/>
+      <c r="F12" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100" t="s">
+      <c r="G12" s="80"/>
+      <c r="H12" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="100"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="167"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="147"/>
     </row>
     <row r="13" spans="1:13" ht="23.35" customHeight="1">
       <c r="A13" s="73">
         <v>7</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="161" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="100" t="s">
+      <c r="E13" s="150"/>
+      <c r="F13" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100" t="s">
+      <c r="G13" s="80"/>
+      <c r="H13" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="167"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="147"/>
     </row>
     <row r="14" spans="1:13" ht="23.35" customHeight="1">
       <c r="A14" s="73">
         <v>8</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="161" t="s">
+      <c r="C14" s="85"/>
+      <c r="D14" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="100" t="s">
+      <c r="E14" s="150"/>
+      <c r="F14" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100" t="s">
+      <c r="G14" s="80"/>
+      <c r="H14" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="100"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="167"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="147"/>
     </row>
     <row r="15" spans="1:13" ht="23.35" customHeight="1">
       <c r="A15" s="73">
         <v>9</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="161" t="s">
+      <c r="C15" s="85"/>
+      <c r="D15" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="100" t="s">
+      <c r="E15" s="150"/>
+      <c r="F15" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100" t="s">
+      <c r="G15" s="80"/>
+      <c r="H15" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="100"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="167"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="147"/>
     </row>
     <row r="16" spans="1:13" ht="23.35" customHeight="1">
       <c r="A16" s="73">
         <v>10</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="100" t="s">
+      <c r="C16" s="85"/>
+      <c r="D16" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100" t="s">
+      <c r="G16" s="80"/>
+      <c r="H16" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="100"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="167"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="147"/>
     </row>
     <row r="17" spans="1:13" ht="23.35" customHeight="1">
       <c r="A17" s="73">
         <v>11</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="100" t="s">
+      <c r="C17" s="85"/>
+      <c r="D17" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100" t="s">
+      <c r="E17" s="80"/>
+      <c r="F17" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100" t="s">
+      <c r="G17" s="80"/>
+      <c r="H17" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="100"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="167"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="147"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
@@ -8316,11 +8322,62 @@
       <c r="I18" s="50"/>
       <c r="J18" s="51"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="163"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="K8:K17"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -8337,57 +8394,6 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="K8:K17"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/design-document/ScreenFee.xlsx
+++ b/design-document/ScreenFee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhh\OneDrive\Desktop\C#_WF\Github\C-_WF-Intership-\design-document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intership\FPT\Winform\C-_WF-Intership-\design-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533" tabRatio="872"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="10536" tabRatio="872"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="140">
   <si>
     <t>Explanation of processing</t>
   </si>
@@ -433,6 +433,30 @@
   </si>
   <si>
     <t>PTMS-MS010-E</t>
+  </si>
+  <si>
+    <t>lblmonthHT1A</t>
+  </si>
+  <si>
+    <t>lblSKU</t>
+  </si>
+  <si>
+    <t>lblnameHV</t>
+  </si>
+  <si>
+    <t>lblnameClass</t>
+  </si>
+  <si>
+    <t>lbltypeFee</t>
+  </si>
+  <si>
+    <t>lblmonthHT3A</t>
+  </si>
+  <si>
+    <t>lblmonthHT2A</t>
+  </si>
+  <si>
+    <t>lblmonthHT</t>
   </si>
 </sst>
 </file>
@@ -768,9 +792,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1218,6 +1239,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1998,7 +2022,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="9245600" cy="502920"/>
+          <a:ext cx="8321040" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -2394,7 +2418,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="161" y="34"/>
+            <a:off x="27" y="31"/>
             <a:ext cx="393" cy="19"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2720,7 +2744,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="8467" y="0"/>
-          <a:ext cx="15826153" cy="579640"/>
+          <a:ext cx="14243537" cy="588758"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3370,7 +3394,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13174134" cy="711200"/>
+          <a:ext cx="11857567" cy="716280"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -4144,7 +4168,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="1784" y="28087"/>
-          <a:ext cx="10625999" cy="635000"/>
+          <a:ext cx="9565126" cy="622300"/>
           <a:chOff x="3" y="6"/>
           <a:chExt cx="1125" cy="52"/>
         </a:xfrm>
@@ -4794,7 +4818,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12031134" cy="601133"/>
+          <a:ext cx="10831407" cy="568113"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5737,30 +5761,30 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="9" width="9" style="28"/>
-    <col min="10" max="10" width="17.44140625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" style="28" customWidth="1"/>
-    <col min="12" max="12" width="0.33203125" style="28" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="28" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="28"/>
+    <col min="1" max="9" width="9" style="27"/>
+    <col min="10" max="10" width="17.44140625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="0.33203125" style="27" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="27" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -5781,854 +5805,854 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="45"/>
-    <col min="2" max="2" width="17" style="41" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="44"/>
+    <col min="2" max="2" width="17" style="40" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="44" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="45" customWidth="1"/>
+    <col min="8" max="8" width="14" style="44" customWidth="1"/>
     <col min="9" max="10" width="14.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" style="59" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="58" customWidth="1"/>
     <col min="13" max="14" width="16" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="89" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="53" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="92" t="s">
+    <row r="2" spans="1:14" ht="13.05" customHeight="1">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:14" ht="13" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="1:14" ht="13.05" customHeight="1">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="47"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="46"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="46"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="56"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="5"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="88"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>1</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="60" t="s">
+      <c r="C6" s="84"/>
+      <c r="D6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="E6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="31" t="s">
+      <c r="I6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="87"/>
-    </row>
-    <row r="7" spans="1:14" ht="40" customHeight="1">
-      <c r="A7" s="48">
+      <c r="M6" s="86"/>
+    </row>
+    <row r="7" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="60" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="E7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="31" t="s">
+      <c r="I7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="87"/>
-    </row>
-    <row r="8" spans="1:14" ht="34" customHeight="1">
-      <c r="A8" s="48">
+      <c r="M7" s="86"/>
+    </row>
+    <row r="8" spans="1:14" ht="34.049999999999997" customHeight="1">
+      <c r="A8" s="47">
         <v>3</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="60" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="E8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="31" t="s">
+      <c r="H8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>4</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="46" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="56" t="s">
+      <c r="I9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="82"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>5</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="46" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="56" t="s">
+      <c r="I10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="79"/>
+      <c r="M10" s="78"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>6</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="46" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="56" t="s">
+      <c r="I11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="M11" s="79"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="12" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>7</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="46" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="56" t="s">
+      <c r="H12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="84"/>
+      <c r="M12" s="83"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <v>8</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="46" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="56" t="s">
+      <c r="H13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="78" t="s">
+      <c r="L13" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="79"/>
+      <c r="M13" s="78"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <v>9</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="46" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="56" t="s">
+      <c r="H14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="78" t="s">
+      <c r="L14" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="79"/>
+      <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <v>10</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="46" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="56" t="s">
+      <c r="H15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="78" t="s">
+      <c r="L15" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="79"/>
+      <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <v>11</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="46" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="56" t="s">
+      <c r="H16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="78" t="s">
+      <c r="L16" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="79"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="48">
+      <c r="A17" s="47">
         <v>12</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="46" t="s">
+      <c r="E17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="56" t="s">
+      <c r="H17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="78" t="s">
+      <c r="L17" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="79"/>
+      <c r="M17" s="78"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>13</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="46" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="46" t="s">
+      <c r="E18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="56" t="s">
+      <c r="H18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="78" t="s">
+      <c r="L18" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="79"/>
+      <c r="M18" s="78"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>14</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="46" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="46" t="s">
+      <c r="E19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="56" t="s">
+      <c r="H19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="78" t="s">
+      <c r="L19" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="79"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>15</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="46" t="s">
+      <c r="E20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="56" t="s">
+      <c r="H20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="78" t="s">
+      <c r="L20" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="79"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>16</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="46" t="s">
+      <c r="C21" s="84"/>
+      <c r="D21" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="46" t="s">
+      <c r="E21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="56" t="s">
+      <c r="H21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="78" t="s">
+      <c r="L21" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="79"/>
+      <c r="M21" s="78"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>17</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="56" t="s">
+      <c r="H22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="78" t="s">
+      <c r="L22" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="79"/>
-    </row>
-    <row r="23" spans="1:13" ht="30.85" customHeight="1">
-      <c r="A23" s="48">
+      <c r="M22" s="78"/>
+    </row>
+    <row r="23" spans="1:13" ht="30.9" customHeight="1">
+      <c r="A23" s="47">
         <v>18</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="46" t="s">
+      <c r="E23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="56" t="s">
+      <c r="H23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="83" t="s">
+      <c r="L23" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="84"/>
+      <c r="M23" s="83"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>19</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="46" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="46" t="s">
+      <c r="E24" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="56" t="s">
+      <c r="H24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="78" t="s">
+      <c r="L24" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="79"/>
+      <c r="M24" s="78"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="51"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="58"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="3"/>
       <c r="M25" s="2"/>
     </row>
@@ -6691,11 +6715,11 @@
   </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="2" width="9.109375" style="1"/>
     <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
@@ -6714,61 +6738,61 @@
     <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="28" customFormat="1" ht="56.5" customHeight="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-    </row>
-    <row r="2" spans="1:24" s="28" customFormat="1" ht="26.7" customHeight="1">
-      <c r="A2" s="112" t="s">
+    <row r="1" spans="1:24" s="27" customFormat="1" ht="56.55" customHeight="1">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+    </row>
+    <row r="2" spans="1:24" s="27" customFormat="1" ht="26.7" customHeight="1">
+      <c r="A2" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-    </row>
-    <row r="3" spans="1:24" s="28" customFormat="1" ht="4" customHeight="1">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="27" customFormat="1" ht="4.05" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6782,53 +6806,53 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="8"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="117"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="5"/>
@@ -6860,14 +6884,14 @@
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:24" ht="13.35">
-      <c r="A8" s="112" t="s">
+    <row r="8" spans="1:24">
+      <c r="A8" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -6896,106 +6920,106 @@
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118" t="s">
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="119" t="s">
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="119" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106" t="s">
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="108"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="107"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="3"/>
@@ -7020,155 +7044,155 @@
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1"/>
     <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="126" t="s">
+      <c r="C20" s="120"/>
+      <c r="D20" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="120" t="s">
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="121"/>
-      <c r="L20" s="120" t="s">
+      <c r="K20" s="120"/>
+      <c r="L20" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="121"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.35" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="129" t="s">
+      <c r="M20" s="120"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.3" customHeight="1">
+      <c r="A21" s="124"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="129" t="s">
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="131"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="123"/>
-    </row>
-    <row r="22" spans="1:13" ht="26" customHeight="1">
-      <c r="A22" s="77">
+      <c r="I21" s="130"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="122"/>
+    </row>
+    <row r="22" spans="1:13" ht="25.95" customHeight="1">
+      <c r="A22" s="76">
         <v>1</v>
       </c>
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="126" t="s">
+      <c r="C22" s="127"/>
+      <c r="D22" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="126" t="s">
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="128"/>
-      <c r="J22" s="120" t="s">
+      <c r="I22" s="127"/>
+      <c r="J22" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="121"/>
-      <c r="L22" s="120" t="s">
+      <c r="K22" s="120"/>
+      <c r="L22" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="121"/>
-    </row>
-    <row r="23" spans="1:13" ht="26" customHeight="1">
-      <c r="A23" s="40">
+      <c r="M22" s="120"/>
+    </row>
+    <row r="23" spans="1:13" ht="25.95" customHeight="1">
+      <c r="A23" s="39">
         <v>2</v>
       </c>
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="126" t="s">
+      <c r="C23" s="127"/>
+      <c r="D23" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="129" t="s">
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="131"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="133"/>
-    </row>
-    <row r="24" spans="1:13" ht="184" customHeight="1">
-      <c r="A24" s="40">
+      <c r="I23" s="130"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="132"/>
+    </row>
+    <row r="24" spans="1:13" ht="184.05" customHeight="1">
+      <c r="A24" s="39">
         <v>3</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="126" t="s">
+      <c r="C24" s="127"/>
+      <c r="D24" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-    </row>
-    <row r="25" spans="1:13" ht="26" customHeight="1">
-      <c r="A25" s="40">
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="132"/>
+    </row>
+    <row r="25" spans="1:13" ht="25.95" customHeight="1">
+      <c r="A25" s="39">
         <v>3</v>
       </c>
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="126" t="s">
+      <c r="C25" s="127"/>
+      <c r="D25" s="125" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="123"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -7223,51 +7247,51 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="40" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.44140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" ht="13" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" ht="13" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.05" customHeight="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.05" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6"/>
@@ -7275,58 +7299,58 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="12.7">
-      <c r="A5" s="137" t="s">
+    <row r="5" spans="1:8" ht="13.2">
+      <c r="A5" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="136"/>
-      <c r="F5" s="134" t="s">
+      <c r="E5" s="135"/>
+      <c r="F5" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="136"/>
-    </row>
-    <row r="6" spans="1:8" ht="49" customHeight="1">
-      <c r="A6" s="138"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="18" t="s">
+      <c r="G5" s="134"/>
+      <c r="H5" s="135"/>
+    </row>
+    <row r="6" spans="1:8" ht="49.05" customHeight="1">
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" customHeight="1">
+    <row r="7" spans="1:8" ht="19.05" customHeight="1">
       <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="169" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -7335,7 +7359,7 @@
       <c r="E7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -7345,14 +7369,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.35" customHeight="1">
+    <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="169" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -7361,13 +7385,13 @@
       <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="62" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="73" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7375,10 +7399,10 @@
       <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="169" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -7387,7 +7411,7 @@
       <c r="E9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>106</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -7401,10 +7425,10 @@
       <c r="A10" s="13">
         <v>4</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -7413,7 +7437,7 @@
       <c r="E10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="62" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -7427,10 +7451,10 @@
       <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -7439,7 +7463,7 @@
       <c r="E11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="62" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="12" t="s">
@@ -7453,10 +7477,10 @@
       <c r="A12" s="13">
         <v>6</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -7465,7 +7489,7 @@
       <c r="E12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="62" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -7479,10 +7503,10 @@
       <c r="A13" s="13">
         <v>7</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -7491,7 +7515,7 @@
       <c r="E13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="62" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -7505,10 +7529,10 @@
       <c r="A14" s="13">
         <v>8</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="14">
@@ -7517,7 +7541,7 @@
       <c r="E14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -7531,10 +7555,10 @@
       <c r="A15" s="13">
         <v>9</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="14">
@@ -7543,7 +7567,7 @@
       <c r="E15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="12" t="s">
@@ -7557,10 +7581,10 @@
       <c r="A16" s="13">
         <v>10</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>96</v>
       </c>
       <c r="D16" s="14">
@@ -7569,7 +7593,7 @@
       <c r="E16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -7583,10 +7607,10 @@
       <c r="A17" s="13">
         <v>11</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="14">
@@ -7595,7 +7619,7 @@
       <c r="E17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -7609,10 +7633,10 @@
       <c r="A18" s="13">
         <v>12</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>98</v>
       </c>
       <c r="D18" s="14">
@@ -7621,7 +7645,7 @@
       <c r="E18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -7635,10 +7659,10 @@
       <c r="A19" s="13">
         <v>13</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>99</v>
       </c>
       <c r="D19" s="14">
@@ -7647,7 +7671,7 @@
       <c r="E19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -7661,10 +7685,10 @@
       <c r="A20" s="13">
         <v>14</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>100</v>
       </c>
       <c r="D20" s="14">
@@ -7673,7 +7697,7 @@
       <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -7687,10 +7711,10 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>101</v>
       </c>
       <c r="D21" s="14">
@@ -7699,7 +7723,7 @@
       <c r="E21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -7713,10 +7737,10 @@
       <c r="A22" s="13">
         <v>16</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>102</v>
       </c>
       <c r="D22" s="14">
@@ -7725,7 +7749,7 @@
       <c r="E22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G22" s="12" t="s">
@@ -7739,10 +7763,10 @@
       <c r="A23" s="13">
         <v>17</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>103</v>
       </c>
       <c r="D23" s="14">
@@ -7751,7 +7775,7 @@
       <c r="E23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="66" t="s">
         <v>106</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -7765,10 +7789,10 @@
       <c r="A24" s="13">
         <v>18</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="14">
@@ -7791,10 +7815,10 @@
       <c r="A25" s="13">
         <v>19</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="14">
@@ -7819,8 +7843,8 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="68"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
@@ -7846,36 +7870,36 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="9.109375" style="1"/>
-    <col min="6" max="7" width="9.109375" style="41"/>
-    <col min="8" max="9" width="10.6640625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="45" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="40"/>
+    <col min="8" max="9" width="10.6640625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="44" customWidth="1"/>
     <col min="11" max="11" width="27.77734375" style="1" customWidth="1"/>
     <col min="12" max="13" width="14.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="163" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="69" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="68" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -7889,18 +7913,18 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="157"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="165" t="s">
+      <c r="A2" s="156"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="52" t="s">
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="51" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="8"/>
@@ -7908,16 +7932,16 @@
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="70">
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="69">
         <v>43296</v>
       </c>
       <c r="K3" s="7"/>
@@ -7930,385 +7954,385 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="46"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169" t="s">
+      <c r="C5" s="168"/>
+      <c r="D5" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="88" t="s">
+      <c r="E5" s="168"/>
+      <c r="F5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="151" t="s">
+      <c r="G5" s="87"/>
+      <c r="H5" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88" t="s">
+      <c r="A6" s="168"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="87"/>
+      <c r="J6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="88" t="s">
+      <c r="L6" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="88"/>
-    </row>
-    <row r="7" spans="1:13" ht="36.85" customHeight="1">
-      <c r="A7" s="73">
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" ht="36.9" customHeight="1">
+      <c r="A7" s="72">
         <v>1</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="143" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="144" t="s">
+      <c r="E7" s="142"/>
+      <c r="F7" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="143" t="s">
+      <c r="G7" s="143"/>
+      <c r="H7" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="143"/>
-      <c r="J7" s="72" t="s">
+      <c r="I7" s="142"/>
+      <c r="J7" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="143" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="145"/>
-    </row>
-    <row r="8" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A8" s="73">
+      <c r="K7" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="144"/>
+    </row>
+    <row r="8" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A8" s="72">
         <v>2</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="150" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="150"/>
-      <c r="F8" s="80" t="s">
+      <c r="E8" s="149"/>
+      <c r="F8" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="79"/>
+      <c r="H8" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="71" t="s">
+      <c r="I8" s="79"/>
+      <c r="J8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="146" t="s">
+      <c r="K8" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="148" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="149"/>
-    </row>
-    <row r="9" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A9" s="73">
+      <c r="L8" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="148"/>
+    </row>
+    <row r="9" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A9" s="72">
         <v>3</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="150" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="149"/>
+      <c r="F9" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80" t="s">
+      <c r="G9" s="79"/>
+      <c r="H9" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="71" t="s">
+      <c r="I9" s="79"/>
+      <c r="J9" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="147"/>
-    </row>
-    <row r="10" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A10" s="73">
+      <c r="K9" s="145"/>
+      <c r="L9" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="146"/>
+    </row>
+    <row r="10" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A10" s="72">
         <v>4</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="150" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="150"/>
-      <c r="F10" s="80" t="s">
+      <c r="E10" s="149"/>
+      <c r="F10" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80" t="s">
+      <c r="G10" s="79"/>
+      <c r="H10" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="71" t="s">
+      <c r="I10" s="79"/>
+      <c r="J10" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="147"/>
-    </row>
-    <row r="11" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A11" s="73">
+      <c r="K10" s="145"/>
+      <c r="L10" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="146"/>
+    </row>
+    <row r="11" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A11" s="72">
         <v>5</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="150" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="150"/>
-      <c r="F11" s="80" t="s">
+      <c r="E11" s="149"/>
+      <c r="F11" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80" t="s">
+      <c r="G11" s="79"/>
+      <c r="H11" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="71" t="s">
+      <c r="I11" s="79"/>
+      <c r="J11" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="147"/>
-    </row>
-    <row r="12" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A12" s="73">
+      <c r="K11" s="145"/>
+      <c r="L11" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="146"/>
+    </row>
+    <row r="12" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A12" s="72">
         <v>6</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="150" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="80" t="s">
+      <c r="E12" s="149"/>
+      <c r="F12" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80" t="s">
+      <c r="G12" s="79"/>
+      <c r="H12" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="71" t="s">
+      <c r="I12" s="79"/>
+      <c r="J12" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="147"/>
-    </row>
-    <row r="13" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A13" s="73">
+      <c r="K12" s="145"/>
+      <c r="L12" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="146"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A13" s="72">
         <v>7</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="150" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="80" t="s">
+      <c r="E13" s="149"/>
+      <c r="F13" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80" t="s">
+      <c r="G13" s="79"/>
+      <c r="H13" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="71" t="s">
+      <c r="I13" s="79"/>
+      <c r="J13" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="147"/>
-    </row>
-    <row r="14" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A14" s="73">
+      <c r="K13" s="145"/>
+      <c r="L13" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="146"/>
+    </row>
+    <row r="14" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A14" s="72">
         <v>8</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="150" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="80" t="s">
+      <c r="E14" s="149"/>
+      <c r="F14" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80" t="s">
+      <c r="G14" s="79"/>
+      <c r="H14" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="71" t="s">
+      <c r="I14" s="79"/>
+      <c r="J14" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="147"/>
-    </row>
-    <row r="15" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A15" s="73">
+      <c r="K14" s="145"/>
+      <c r="L14" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="146"/>
+    </row>
+    <row r="15" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A15" s="72">
         <v>9</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="150" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="150"/>
-      <c r="F15" s="80" t="s">
+      <c r="E15" s="149"/>
+      <c r="F15" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80" t="s">
+      <c r="G15" s="79"/>
+      <c r="H15" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="71" t="s">
+      <c r="I15" s="79"/>
+      <c r="J15" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="147"/>
-    </row>
-    <row r="16" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A16" s="73">
+      <c r="K15" s="145"/>
+      <c r="L15" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="146"/>
+    </row>
+    <row r="16" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A16" s="72">
         <v>10</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="80" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80" t="s">
+      <c r="E16" s="79"/>
+      <c r="F16" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80" t="s">
+      <c r="G16" s="79"/>
+      <c r="H16" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="71" t="s">
+      <c r="I16" s="79"/>
+      <c r="J16" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="147"/>
-    </row>
-    <row r="17" spans="1:13" ht="23.35" customHeight="1">
-      <c r="A17" s="73">
+      <c r="K16" s="145"/>
+      <c r="L16" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="146"/>
+    </row>
+    <row r="17" spans="1:13" ht="23.4" customHeight="1">
+      <c r="A17" s="72">
         <v>11</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="80" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80" t="s">
+      <c r="E17" s="79"/>
+      <c r="F17" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="80"/>
-      <c r="J17" s="71" t="s">
+      <c r="I17" s="79"/>
+      <c r="J17" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="147"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="146"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
@@ -8316,14 +8340,14 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="142"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="67">

--- a/design-document/ScreenFee.xlsx
+++ b/design-document/ScreenFee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intership\FPT\Winform\C-_WF-Intership-\design-document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhh\OneDrive\Desktop\C#_WF\Github\C-_WF-Intership-\design-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="10536" tabRatio="872"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533" tabRatio="872" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="7" r:id="rId1"/>
@@ -429,9 +429,6 @@
     <t>ManageFee_BLO.cs</t>
   </si>
   <si>
-    <t>Learn_Model.cs, AccessDB_DAO.cs,ExportExcel_DAO.cs,Class_Model.cs,Student_Model.cs</t>
-  </si>
-  <si>
     <t>PTMS-MS010-E</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>lblmonthHT</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -964,6 +964,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -979,65 +1042,47 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1090,48 +1135,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1153,6 +1156,69 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1168,9 +1234,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,69 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2022,7 +2022,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="8321040" cy="502920"/>
+          <a:ext cx="9245600" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3394,7 +3394,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11857567" cy="716280"/>
+          <a:ext cx="13174134" cy="711200"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -4168,7 +4168,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="1784" y="28087"/>
-          <a:ext cx="9565126" cy="622300"/>
+          <a:ext cx="10625999" cy="635000"/>
           <a:chOff x="3" y="6"/>
           <a:chExt cx="1125" cy="52"/>
         </a:xfrm>
@@ -4818,7 +4818,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10831407" cy="568113"/>
+          <a:ext cx="12031134" cy="601133"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5757,11 +5757,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="9" width="9" style="27"/>
     <col min="10" max="10" width="17.44140625" style="27" customWidth="1"/>
@@ -5808,7 +5808,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="44"/>
     <col min="2" max="2" width="17" style="40" customWidth="1"/>
@@ -5826,21 +5826,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="88" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80"/>
       <c r="L1" s="52" t="s">
         <v>10</v>
       </c>
@@ -5851,36 +5851,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.05" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="91" t="s">
+    <row r="2" spans="1:14" ht="13" customHeight="1">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="53"/>
       <c r="M2" s="21"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" ht="13.05" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93"/>
+    <row r="3" spans="1:14" ht="13" customHeight="1">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="54"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -5905,10 +5905,10 @@
       <c r="A5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="29" t="s">
         <v>53</v>
       </c>
@@ -5933,19 +5933,19 @@
       <c r="K5" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="87"/>
+      <c r="M5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="37.5" customHeight="1">
       <c r="A6" s="47">
         <v>1</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="59" t="s">
         <v>31</v>
       </c>
@@ -5970,19 +5970,19 @@
       <c r="K6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="86"/>
-    </row>
-    <row r="7" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="M6" s="91"/>
+    </row>
+    <row r="7" spans="1:14" ht="40" customHeight="1">
       <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="59" t="s">
         <v>29</v>
       </c>
@@ -6007,19 +6007,19 @@
       <c r="K7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="86"/>
-    </row>
-    <row r="8" spans="1:14" ht="34.049999999999997" customHeight="1">
+      <c r="M7" s="91"/>
+    </row>
+    <row r="8" spans="1:14" ht="34" customHeight="1">
       <c r="A8" s="47">
         <v>3</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="59" t="s">
         <v>27</v>
       </c>
@@ -6044,21 +6044,21 @@
       <c r="K8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="86"/>
+      <c r="M8" s="91"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="47">
         <v>4</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>26</v>
@@ -6081,21 +6081,21 @@
       <c r="K9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="81"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="47">
         <v>5</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>26</v>
@@ -6118,21 +6118,21 @@
       <c r="K10" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="78"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="47">
         <v>6</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>26</v>
@@ -6155,21 +6155,21 @@
       <c r="K11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="M11" s="78"/>
+      <c r="M11" s="99"/>
     </row>
     <row r="12" spans="1:14" ht="28.5" customHeight="1">
       <c r="A12" s="47">
         <v>7</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="84"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>26</v>
@@ -6192,21 +6192,21 @@
       <c r="K12" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="82" t="s">
+      <c r="L12" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="83"/>
+      <c r="M12" s="97"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="47">
         <v>8</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>26</v>
@@ -6229,21 +6229,21 @@
       <c r="K13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="78"/>
+      <c r="M13" s="99"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="47">
         <v>9</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>26</v>
@@ -6266,21 +6266,21 @@
       <c r="K14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="78"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="47">
         <v>10</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="84"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>26</v>
@@ -6303,21 +6303,21 @@
       <c r="K15" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="78"/>
+      <c r="M15" s="99"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="47">
         <v>11</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>26</v>
@@ -6340,19 +6340,19 @@
       <c r="K16" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="78"/>
+      <c r="M16" s="99"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="47">
         <v>12</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="45" t="s">
         <v>98</v>
       </c>
@@ -6377,19 +6377,19 @@
       <c r="K17" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="78"/>
+      <c r="M17" s="99"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="47">
         <v>13</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="84"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="45" t="s">
         <v>99</v>
       </c>
@@ -6414,19 +6414,19 @@
       <c r="K18" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="77" t="s">
+      <c r="L18" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="78"/>
+      <c r="M18" s="99"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="47">
         <v>14</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="84"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="45" t="s">
         <v>100</v>
       </c>
@@ -6451,19 +6451,19 @@
       <c r="K19" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="77" t="s">
+      <c r="L19" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="78"/>
+      <c r="M19" s="99"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="47">
         <v>15</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="84"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="45" t="s">
         <v>101</v>
       </c>
@@ -6488,19 +6488,19 @@
       <c r="K20" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="77" t="s">
+      <c r="L20" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="78"/>
+      <c r="M20" s="99"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="47">
         <v>16</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="45" t="s">
         <v>102</v>
       </c>
@@ -6525,19 +6525,19 @@
       <c r="K21" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="77" t="s">
+      <c r="L21" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="78"/>
+      <c r="M21" s="99"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="47">
         <v>17</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="84"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="45" t="s">
         <v>103</v>
       </c>
@@ -6562,19 +6562,19 @@
       <c r="K22" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="77" t="s">
+      <c r="L22" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="78"/>
-    </row>
-    <row r="23" spans="1:13" ht="30.9" customHeight="1">
+      <c r="M22" s="99"/>
+    </row>
+    <row r="23" spans="1:13" ht="30.85" customHeight="1">
       <c r="A23" s="47">
         <v>18</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="45" t="s">
         <v>104</v>
       </c>
@@ -6599,19 +6599,19 @@
       <c r="K23" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="83"/>
+      <c r="M23" s="97"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="47">
         <v>19</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="45" t="s">
         <v>105</v>
       </c>
@@ -6636,10 +6636,10 @@
       <c r="K24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="77" t="s">
+      <c r="L24" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="78"/>
+      <c r="M24" s="99"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="48"/>
@@ -6658,33 +6658,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="L9:M9"/>
@@ -6701,6 +6674,33 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6715,11 +6715,11 @@
   </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="2" width="9.109375" style="1"/>
     <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
@@ -6738,7 +6738,7 @@
     <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="27" customFormat="1" ht="56.55" customHeight="1">
+    <row r="1" spans="1:24" s="27" customFormat="1" ht="56.5" customHeight="1">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6765,21 +6765,21 @@
       <c r="X1" s="25"/>
     </row>
     <row r="2" spans="1:24" s="27" customFormat="1" ht="26.7" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="26"/>
@@ -6792,7 +6792,7 @@
       <c r="W2" s="25"/>
       <c r="X2" s="25"/>
     </row>
-    <row r="3" spans="1:24" s="27" customFormat="1" ht="4.05" customHeight="1">
+    <row r="3" spans="1:24" s="27" customFormat="1" ht="4" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6822,37 +6822,37 @@
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117" t="s">
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="8"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="131"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="5"/>
@@ -6884,14 +6884,14 @@
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="111" t="s">
+    <row r="8" spans="1:24" ht="13.35">
+      <c r="A8" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -6920,106 +6920,106 @@
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117" t="s">
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="118" t="s">
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="118" t="s">
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109" t="s">
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105" t="s">
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="107"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="3"/>
@@ -7044,140 +7044,140 @@
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1"/>
     <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="125" t="s">
+      <c r="C20" s="106"/>
+      <c r="D20" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="119" t="s">
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="120"/>
-      <c r="L20" s="119" t="s">
+      <c r="K20" s="106"/>
+      <c r="L20" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="120"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.3" customHeight="1">
-      <c r="A21" s="124"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="128" t="s">
+      <c r="M20" s="106"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.35" customHeight="1">
+      <c r="A21" s="115"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="128" t="s">
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="130"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="122"/>
-    </row>
-    <row r="22" spans="1:13" ht="25.95" customHeight="1">
+      <c r="I21" s="113"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="110"/>
+    </row>
+    <row r="22" spans="1:13" ht="26" customHeight="1">
       <c r="A22" s="76">
         <v>1</v>
       </c>
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="125" t="s">
+      <c r="C22" s="104"/>
+      <c r="D22" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="125" t="s">
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="127"/>
-      <c r="J22" s="119" t="s">
+      <c r="I22" s="104"/>
+      <c r="J22" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="120"/>
-      <c r="L22" s="119" t="s">
+      <c r="K22" s="106"/>
+      <c r="L22" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="120"/>
-    </row>
-    <row r="23" spans="1:13" ht="25.95" customHeight="1">
+      <c r="M22" s="106"/>
+    </row>
+    <row r="23" spans="1:13" ht="26" customHeight="1">
       <c r="A23" s="39">
         <v>2</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="125" t="s">
+      <c r="C23" s="104"/>
+      <c r="D23" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="128" t="s">
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="130"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="132"/>
-    </row>
-    <row r="24" spans="1:13" ht="184.05" customHeight="1">
+      <c r="I23" s="113"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+    </row>
+    <row r="24" spans="1:13" ht="184" customHeight="1">
       <c r="A24" s="39">
         <v>3</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="125" t="s">
+      <c r="C24" s="104"/>
+      <c r="D24" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-    </row>
-    <row r="25" spans="1:13" ht="25.95" customHeight="1">
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+    </row>
+    <row r="25" spans="1:13" ht="26" customHeight="1">
       <c r="A25" s="39">
         <v>3</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="125" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="74"/>
@@ -7196,27 +7196,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="J22:K25"/>
-    <mergeCell ref="L22:M25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J20:K21"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:M14"/>
     <mergeCell ref="B13:E13"/>
@@ -7233,6 +7212,27 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:M11"/>
     <mergeCell ref="A8:E8"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="J22:K25"/>
+    <mergeCell ref="L22:M25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7250,7 +7250,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
@@ -7273,7 +7273,7 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" ht="13.05" customHeight="1">
+    <row r="2" spans="1:8" ht="13" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7283,7 +7283,7 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:8" ht="13.05" customHeight="1">
+    <row r="3" spans="1:8" ht="13" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -7303,30 +7303,30 @@
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="13.2">
-      <c r="A5" s="136" t="s">
+    <row r="5" spans="1:8" ht="12.7">
+      <c r="A5" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="133" t="s">
+      <c r="E5" s="136"/>
+      <c r="F5" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="135"/>
-    </row>
-    <row r="6" spans="1:8" ht="49.05" customHeight="1">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="139"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
+    </row>
+    <row r="6" spans="1:8" ht="49" customHeight="1">
+      <c r="A6" s="138"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="17" t="s">
         <v>35</v>
       </c>
@@ -7343,14 +7343,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.05" customHeight="1">
+    <row r="7" spans="1:8" ht="19" customHeight="1">
       <c r="A7" s="13">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="77" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -7369,14 +7369,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.4" customHeight="1">
+    <row r="8" spans="1:8" ht="32.35" customHeight="1">
       <c r="A8" s="13">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="77" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -7402,7 +7402,7 @@
       <c r="B9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="169" t="s">
+      <c r="C9" s="77" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -7874,7 +7874,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
   <cols>
     <col min="1" max="5" width="9.109375" style="1"/>
     <col min="6" max="7" width="9.109375" style="40"/>
@@ -7886,19 +7886,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="162" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="68" t="s">
         <v>12</v>
       </c>
@@ -7913,17 +7913,17 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="164" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="51" t="s">
         <v>8</v>
       </c>
@@ -7932,15 +7932,15 @@
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="69">
         <v>43296</v>
       </c>
@@ -7964,375 +7964,375 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="87" t="s">
+      <c r="E5" s="160"/>
+      <c r="F5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="150" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="152"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="168"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87" t="s">
+      <c r="A6" s="160"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="87"/>
-    </row>
-    <row r="7" spans="1:13" ht="36.9" customHeight="1">
+      <c r="M6" s="92"/>
+    </row>
+    <row r="7" spans="1:13" ht="36.85" customHeight="1">
       <c r="A7" s="72">
         <v>1</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="142" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="143" t="s">
+      <c r="E7" s="164"/>
+      <c r="F7" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="142" t="s">
+      <c r="G7" s="165"/>
+      <c r="H7" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="142"/>
+      <c r="I7" s="164"/>
       <c r="J7" s="71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="142" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="144"/>
-    </row>
-    <row r="8" spans="1:13" ht="23.4" customHeight="1">
+      <c r="L7" s="164" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="166"/>
+    </row>
+    <row r="8" spans="1:13" ht="23.35" customHeight="1">
       <c r="A8" s="72">
         <v>2</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="149" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="149"/>
-      <c r="F8" s="79" t="s">
+      <c r="E8" s="161"/>
+      <c r="F8" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79" t="s">
+      <c r="G8" s="100"/>
+      <c r="H8" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="79"/>
+      <c r="I8" s="100"/>
       <c r="J8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="145" t="s">
+      <c r="K8" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="147" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="148"/>
-    </row>
-    <row r="9" spans="1:13" ht="23.4" customHeight="1">
+      <c r="L8" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="169"/>
+    </row>
+    <row r="9" spans="1:13" ht="23.35" customHeight="1">
       <c r="A9" s="72">
         <v>3</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="149" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="79" t="s">
+      <c r="E9" s="161"/>
+      <c r="F9" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79" t="s">
+      <c r="G9" s="100"/>
+      <c r="H9" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="79"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="146"/>
-    </row>
-    <row r="10" spans="1:13" ht="23.4" customHeight="1">
+      <c r="K9" s="141"/>
+      <c r="L9" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="167"/>
+    </row>
+    <row r="10" spans="1:13" ht="23.35" customHeight="1">
       <c r="A10" s="72">
         <v>4</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="149" t="s">
+      <c r="C10" s="89"/>
+      <c r="D10" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="79" t="s">
+      <c r="E10" s="161"/>
+      <c r="F10" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79" t="s">
+      <c r="G10" s="100"/>
+      <c r="H10" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="79"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="146"/>
-    </row>
-    <row r="11" spans="1:13" ht="23.4" customHeight="1">
+      <c r="K10" s="141"/>
+      <c r="L10" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="167"/>
+    </row>
+    <row r="11" spans="1:13" ht="23.35" customHeight="1">
       <c r="A11" s="72">
         <v>5</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="149" t="s">
+      <c r="C11" s="89"/>
+      <c r="D11" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="149"/>
-      <c r="F11" s="79" t="s">
+      <c r="E11" s="161"/>
+      <c r="F11" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79" t="s">
+      <c r="G11" s="100"/>
+      <c r="H11" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="79"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="146"/>
-    </row>
-    <row r="12" spans="1:13" ht="23.4" customHeight="1">
+      <c r="K11" s="141"/>
+      <c r="L11" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="167"/>
+    </row>
+    <row r="12" spans="1:13" ht="23.35" customHeight="1">
       <c r="A12" s="72">
         <v>6</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="149" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="79" t="s">
+      <c r="E12" s="161"/>
+      <c r="F12" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79" t="s">
+      <c r="G12" s="100"/>
+      <c r="H12" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="79"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="146"/>
-    </row>
-    <row r="13" spans="1:13" ht="23.4" customHeight="1">
+      <c r="K12" s="141"/>
+      <c r="L12" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="167"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.35" customHeight="1">
       <c r="A13" s="72">
         <v>7</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="149" t="s">
+      <c r="C13" s="89"/>
+      <c r="D13" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="149"/>
-      <c r="F13" s="79" t="s">
+      <c r="E13" s="161"/>
+      <c r="F13" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79" t="s">
+      <c r="G13" s="100"/>
+      <c r="H13" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="79"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="146"/>
-    </row>
-    <row r="14" spans="1:13" ht="23.4" customHeight="1">
+      <c r="K13" s="141"/>
+      <c r="L13" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="167"/>
+    </row>
+    <row r="14" spans="1:13" ht="23.35" customHeight="1">
       <c r="A14" s="72">
         <v>8</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="149" t="s">
+      <c r="C14" s="89"/>
+      <c r="D14" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="149"/>
-      <c r="F14" s="79" t="s">
+      <c r="E14" s="161"/>
+      <c r="F14" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79" t="s">
+      <c r="G14" s="100"/>
+      <c r="H14" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="79"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="146"/>
-    </row>
-    <row r="15" spans="1:13" ht="23.4" customHeight="1">
+      <c r="K14" s="141"/>
+      <c r="L14" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="167"/>
+    </row>
+    <row r="15" spans="1:13" ht="23.35" customHeight="1">
       <c r="A15" s="72">
         <v>9</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="149" t="s">
+      <c r="C15" s="89"/>
+      <c r="D15" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="79" t="s">
+      <c r="E15" s="161"/>
+      <c r="F15" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79" t="s">
+      <c r="G15" s="100"/>
+      <c r="H15" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="79"/>
+      <c r="I15" s="100"/>
       <c r="J15" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="146"/>
-    </row>
-    <row r="16" spans="1:13" ht="23.4" customHeight="1">
+      <c r="K15" s="141"/>
+      <c r="L15" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="167"/>
+    </row>
+    <row r="16" spans="1:13" ht="23.35" customHeight="1">
       <c r="A16" s="72">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="79" t="s">
+      <c r="C16" s="89"/>
+      <c r="D16" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79" t="s">
+      <c r="E16" s="100"/>
+      <c r="F16" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79" t="s">
+      <c r="G16" s="100"/>
+      <c r="H16" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="79"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="146"/>
-    </row>
-    <row r="17" spans="1:13" ht="23.4" customHeight="1">
+      <c r="K16" s="141"/>
+      <c r="L16" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="167"/>
+    </row>
+    <row r="17" spans="1:13" ht="23.35" customHeight="1">
       <c r="A17" s="72">
         <v>11</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="79" t="s">
+      <c r="C17" s="89"/>
+      <c r="D17" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79" t="s">
+      <c r="E17" s="100"/>
+      <c r="F17" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79" t="s">
+      <c r="G17" s="100"/>
+      <c r="H17" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="79"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="146"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="167"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
@@ -8346,11 +8346,62 @@
       <c r="I18" s="49"/>
       <c r="J18" s="50"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="141"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="K8:K17"/>
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="H6:I6"/>
@@ -8367,57 +8418,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/design-document/ScreenFee.xlsx
+++ b/design-document/ScreenFee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhh\OneDrive\Desktop\C#_WF\Github\C-_WF-Intership-\design-document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhh\OneDrive\Desktop\C#_WF\Github\design-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533" tabRatio="872" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533" tabRatio="872"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="141">
   <si>
     <t>Explanation of processing</t>
   </si>
@@ -222,9 +222,6 @@
     <t>FeeScreen.xaml</t>
   </si>
   <si>
-    <t>PTMS-MS001-E</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -429,9 +426,6 @@
     <t>ManageFee_BLO.cs</t>
   </si>
   <si>
-    <t>PTMS-MS010-E</t>
-  </si>
-  <si>
     <t>lblmonthHT1A</t>
   </si>
   <si>
@@ -457,6 +451,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>AKD-MS0010-E</t>
+  </si>
+  <si>
+    <t>AKD-MS001-E</t>
+  </si>
+  <si>
+    <t>{0}: xuất file</t>
   </si>
 </sst>
 </file>
@@ -967,6 +970,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,6 +1012,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,59 +1045,92 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,81 +1138,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,9 +1159,36 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,33 +1245,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2022,7 +2025,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="9245600" cy="502920"/>
+          <a:ext cx="7797800" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -2674,40 +2677,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>567266</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>750358</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>40216</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1174677</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="24" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812800" y="787399"/>
-          <a:ext cx="7439025" cy="6000750"/>
+          <a:off x="567266" y="880534"/>
+          <a:ext cx="6779611" cy="4724400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3394,7 +3391,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13174134" cy="711200"/>
+          <a:ext cx="11533717" cy="714375"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -4168,7 +4165,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="1784" y="28087"/>
-          <a:ext cx="10625999" cy="635000"/>
+          <a:ext cx="9304141" cy="641350"/>
           <a:chOff x="3" y="6"/>
           <a:chExt cx="1125" cy="52"/>
         </a:xfrm>
@@ -4818,7 +4815,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12031134" cy="601133"/>
+          <a:ext cx="12022667" cy="601133"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5757,17 +5754,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="9" width="9" style="27"/>
-    <col min="10" max="10" width="17.44140625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="27" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" style="27" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="0.33203125" style="27" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="27" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="27" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="2.109375" style="27" customWidth="1"/>
     <col min="15" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -5826,21 +5824,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="52" t="s">
         <v>10</v>
       </c>
@@ -5852,35 +5850,35 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="13" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="93" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="53"/>
       <c r="M2" s="21"/>
       <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="13" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="54"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -5905,10 +5903,10 @@
       <c r="A5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="29" t="s">
         <v>53</v>
       </c>
@@ -5933,19 +5931,19 @@
       <c r="K5" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="92" t="s">
+      <c r="L5" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="92"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:14" ht="37.5" customHeight="1">
       <c r="A6" s="47">
         <v>1</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="59" t="s">
         <v>31</v>
       </c>
@@ -5959,7 +5957,7 @@
         <v>46</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>26</v>
@@ -5970,19 +5968,19 @@
       <c r="K6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="90" t="s">
+      <c r="L6" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="40" customHeight="1">
       <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="59" t="s">
         <v>29</v>
       </c>
@@ -5996,7 +5994,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>26</v>
@@ -6007,19 +6005,19 @@
       <c r="K7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="91"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="1:14" ht="34" customHeight="1">
       <c r="A8" s="47">
         <v>3</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="59" t="s">
         <v>27</v>
       </c>
@@ -6044,21 +6042,21 @@
       <c r="K8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="90" t="s">
+      <c r="L8" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="91"/>
+      <c r="M8" s="87"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="47">
         <v>4</v>
       </c>
-      <c r="B9" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="89"/>
+      <c r="B9" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="85"/>
       <c r="D9" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>26</v>
@@ -6081,21 +6079,21 @@
       <c r="K9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" s="102"/>
+      <c r="L9" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="82"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="47">
         <v>5</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="89"/>
+      <c r="B10" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="85"/>
       <c r="D10" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>26</v>
@@ -6118,21 +6116,21 @@
       <c r="K10" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="99"/>
+      <c r="L10" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="47">
         <v>6</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="89"/>
+      <c r="B11" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="85"/>
       <c r="D11" s="45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>26</v>
@@ -6155,21 +6153,21 @@
       <c r="K11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="99"/>
+      <c r="L11" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="79"/>
     </row>
     <row r="12" spans="1:14" ht="28.5" customHeight="1">
       <c r="A12" s="47">
         <v>7</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="89"/>
+      <c r="B12" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="85"/>
       <c r="D12" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>26</v>
@@ -6192,21 +6190,21 @@
       <c r="K12" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="97"/>
+      <c r="L12" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="84"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="47">
         <v>8</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="89"/>
+      <c r="B13" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="85"/>
       <c r="D13" s="45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>26</v>
@@ -6229,21 +6227,21 @@
       <c r="K13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="99"/>
+      <c r="L13" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="79"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="47">
         <v>9</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="89"/>
+      <c r="B14" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="85"/>
       <c r="D14" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>26</v>
@@ -6266,21 +6264,21 @@
       <c r="K14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="99"/>
+      <c r="L14" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="79"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="47">
         <v>10</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="89"/>
+      <c r="B15" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="85"/>
       <c r="D15" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>26</v>
@@ -6303,21 +6301,21 @@
       <c r="K15" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="99"/>
+      <c r="L15" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="79"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="47">
         <v>11</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="89"/>
+      <c r="B16" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="85"/>
       <c r="D16" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>26</v>
@@ -6340,21 +6338,21 @@
       <c r="K16" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="99"/>
+      <c r="L16" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="79"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="47">
         <v>12</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="89"/>
+      <c r="B17" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="85"/>
       <c r="D17" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>26</v>
@@ -6377,21 +6375,21 @@
       <c r="K17" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="99"/>
+      <c r="L17" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="79"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="47">
         <v>13</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="89"/>
+      <c r="B18" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="85"/>
       <c r="D18" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>26</v>
@@ -6414,21 +6412,21 @@
       <c r="K18" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="99"/>
+      <c r="L18" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="47">
         <v>14</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="89"/>
+      <c r="B19" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="85"/>
       <c r="D19" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>26</v>
@@ -6451,21 +6449,21 @@
       <c r="K19" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" s="99"/>
+      <c r="L19" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="47">
         <v>15</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="89"/>
+      <c r="B20" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="85"/>
       <c r="D20" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>26</v>
@@ -6488,21 +6486,21 @@
       <c r="K20" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="99"/>
+      <c r="L20" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="47">
         <v>16</v>
       </c>
-      <c r="B21" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="89"/>
+      <c r="B21" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="85"/>
       <c r="D21" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>26</v>
@@ -6525,21 +6523,21 @@
       <c r="K21" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" s="99"/>
+      <c r="L21" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="47">
         <v>17</v>
       </c>
-      <c r="B22" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="89"/>
+      <c r="B22" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="85"/>
       <c r="D22" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>26</v>
@@ -6562,21 +6560,21 @@
       <c r="K22" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="99"/>
-    </row>
-    <row r="23" spans="1:13" ht="30.85" customHeight="1">
+      <c r="L22" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="79"/>
+    </row>
+    <row r="23" spans="1:13" ht="31" customHeight="1">
       <c r="A23" s="47">
         <v>18</v>
       </c>
-      <c r="B23" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="89"/>
+      <c r="B23" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="85"/>
       <c r="D23" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>26</v>
@@ -6599,21 +6597,21 @@
       <c r="K23" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="M23" s="97"/>
+      <c r="L23" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" s="84"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="47">
         <v>19</v>
       </c>
-      <c r="B24" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="100"/>
+      <c r="B24" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="80"/>
       <c r="D24" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>26</v>
@@ -6636,10 +6634,10 @@
       <c r="K24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="98" t="s">
-        <v>89</v>
-      </c>
-      <c r="M24" s="99"/>
+      <c r="L24" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="79"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="48"/>
@@ -6658,6 +6656,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="L9:M9"/>
@@ -6674,33 +6699,6 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6715,7 +6713,7 @@
   </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="J22" sqref="J22:K25"/>
     </sheetView>
   </sheetViews>
@@ -6765,21 +6763,21 @@
       <c r="X1" s="25"/>
     </row>
     <row r="2" spans="1:24" s="27" customFormat="1" ht="26.7" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="127"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="26"/>
@@ -6822,37 +6820,37 @@
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132" t="s">
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="8"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="131"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="117"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="5"/>
@@ -6885,13 +6883,13 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="13.35">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -6920,106 +6918,106 @@
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="133" t="s">
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="133" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="122"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="3"/>
@@ -7039,145 +7037,145 @@
     <row r="17" spans="1:13" ht="30" customHeight="1"/>
     <row r="18" spans="1:13" ht="19.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1"/>
     <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="103" t="s">
+      <c r="C20" s="121"/>
+      <c r="D20" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105" t="s">
+      <c r="K20" s="121"/>
+      <c r="L20" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="121"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.35" customHeight="1">
+      <c r="A21" s="125"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="106"/>
-      <c r="L20" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="106"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.35" customHeight="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="112" t="s">
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="112" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="110"/>
-    </row>
-    <row r="22" spans="1:13" ht="26" customHeight="1">
+      <c r="I21" s="131"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
+    </row>
+    <row r="22" spans="1:13" ht="26.2" customHeight="1">
       <c r="A22" s="76">
         <v>1</v>
       </c>
-      <c r="B22" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="106"/>
-      <c r="L22" s="105" t="s">
+      <c r="B22" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="128"/>
+      <c r="D22" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="128"/>
+      <c r="J22" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="121"/>
+      <c r="L22" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="106"/>
-    </row>
-    <row r="23" spans="1:13" ht="26" customHeight="1">
+      <c r="M22" s="121"/>
+    </row>
+    <row r="23" spans="1:13" ht="26.2" customHeight="1">
       <c r="A23" s="39">
         <v>2</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="108"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="133"/>
     </row>
     <row r="24" spans="1:13" ht="184" customHeight="1">
       <c r="A24" s="39">
         <v>3</v>
       </c>
-      <c r="B24" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
-    </row>
-    <row r="25" spans="1:13" ht="26" customHeight="1">
+      <c r="B24" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="128"/>
+      <c r="D24" s="126" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="133"/>
+    </row>
+    <row r="25" spans="1:13" ht="26.2" customHeight="1">
       <c r="A25" s="39">
         <v>3</v>
       </c>
-      <c r="B25" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="103" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="110"/>
+      <c r="B25" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="128"/>
+      <c r="D25" s="126" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="74"/>
@@ -7196,6 +7194,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="J22:K25"/>
+    <mergeCell ref="L22:M25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J20:K21"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:M14"/>
     <mergeCell ref="B13:E13"/>
@@ -7212,27 +7231,6 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:M11"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="J22:K25"/>
-    <mergeCell ref="L22:M25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7246,8 +7244,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
@@ -7369,7 +7367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.35" customHeight="1">
+    <row r="8" spans="1:8" ht="32.5" customHeight="1">
       <c r="A8" s="13">
         <v>2</v>
       </c>
@@ -7392,7 +7390,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7412,7 +7410,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>26</v>
@@ -7426,10 +7424,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>26</v>
@@ -7452,10 +7450,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>26</v>
@@ -7478,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>26</v>
@@ -7504,10 +7502,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>26</v>
@@ -7530,10 +7528,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
@@ -7542,7 +7540,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>26</v>
@@ -7556,10 +7554,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="14">
         <v>0</v>
@@ -7568,7 +7566,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>26</v>
@@ -7582,10 +7580,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="14">
         <v>0</v>
@@ -7594,7 +7592,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>26</v>
@@ -7608,10 +7606,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="14">
         <v>0</v>
@@ -7620,7 +7618,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>26</v>
@@ -7634,10 +7632,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="14">
         <v>0</v>
@@ -7646,7 +7644,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>26</v>
@@ -7660,10 +7658,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="14">
         <v>0</v>
@@ -7672,7 +7670,7 @@
         <v>26</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>26</v>
@@ -7686,10 +7684,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" s="14">
         <v>0</v>
@@ -7698,7 +7696,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>26</v>
@@ -7712,10 +7710,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="14">
         <v>0</v>
@@ -7724,7 +7722,7 @@
         <v>26</v>
       </c>
       <c r="F21" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>26</v>
@@ -7738,10 +7736,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="14">
         <v>0</v>
@@ -7750,7 +7748,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>26</v>
@@ -7764,10 +7762,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="14">
         <v>0</v>
@@ -7776,7 +7774,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>26</v>
@@ -7790,10 +7788,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="14">
         <v>0</v>
@@ -7816,10 +7814,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
@@ -7870,8 +7868,8 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.7"/>
@@ -7880,25 +7878,25 @@
     <col min="6" max="7" width="9.109375" style="40"/>
     <col min="8" max="9" width="10.6640625" style="40" customWidth="1"/>
     <col min="10" max="10" width="15.88671875" style="44" customWidth="1"/>
-    <col min="11" max="11" width="27.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="1" customWidth="1"/>
     <col min="12" max="13" width="14.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="154" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
       <c r="J1" s="68" t="s">
         <v>12</v>
       </c>
@@ -7913,17 +7911,17 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="156" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
       <c r="J2" s="51" t="s">
         <v>8</v>
       </c>
@@ -7932,15 +7930,15 @@
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="69">
         <v>43296</v>
       </c>
@@ -7964,375 +7962,375 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160" t="s">
+      <c r="C5" s="169"/>
+      <c r="D5" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="92" t="s">
+      <c r="E5" s="169"/>
+      <c r="F5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="142" t="s">
+      <c r="G5" s="88"/>
+      <c r="H5" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="144"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="153"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="160"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92" t="s">
+      <c r="A6" s="169"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="92"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="92"/>
-    </row>
-    <row r="7" spans="1:13" ht="36.85" customHeight="1">
+      <c r="M6" s="88"/>
+    </row>
+    <row r="7" spans="1:13" ht="37" customHeight="1">
       <c r="A7" s="72">
         <v>1</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="164" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="164"/>
-      <c r="F7" s="165" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="164" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="164"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="144"/>
+      <c r="H7" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="143"/>
       <c r="J7" s="71" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="164" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="166"/>
-    </row>
-    <row r="8" spans="1:13" ht="23.35" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="L7" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="145"/>
+    </row>
+    <row r="8" spans="1:13" ht="23.5" customHeight="1">
       <c r="A8" s="72">
         <v>2</v>
       </c>
-      <c r="B8" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="161" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100" t="s">
+      <c r="B8" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="150"/>
+      <c r="F8" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="100"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="80"/>
       <c r="J8" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="168" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="169"/>
-    </row>
-    <row r="9" spans="1:13" ht="23.35" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="K8" s="146" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="148" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="149"/>
+    </row>
+    <row r="9" spans="1:13" ht="23.5" customHeight="1">
       <c r="A9" s="72">
         <v>3</v>
       </c>
-      <c r="B9" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100" t="s">
+      <c r="B9" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="150"/>
+      <c r="F9" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="100"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="80"/>
       <c r="J9" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="167"/>
-    </row>
-    <row r="10" spans="1:13" ht="23.35" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="147"/>
+    </row>
+    <row r="10" spans="1:13" ht="23.5" customHeight="1">
       <c r="A10" s="72">
         <v>4</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="161" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100" t="s">
+      <c r="B10" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="150"/>
+      <c r="F10" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="100"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="80"/>
       <c r="J10" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="167"/>
-    </row>
-    <row r="11" spans="1:13" ht="23.35" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="147"/>
+    </row>
+    <row r="11" spans="1:13" ht="23.5" customHeight="1">
       <c r="A11" s="72">
         <v>5</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="161" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100" t="s">
+      <c r="B11" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="150"/>
+      <c r="F11" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="100"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="80"/>
       <c r="J11" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="167"/>
-    </row>
-    <row r="12" spans="1:13" ht="23.35" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="147"/>
+    </row>
+    <row r="12" spans="1:13" ht="23.5" customHeight="1">
       <c r="A12" s="72">
         <v>6</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="161" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100" t="s">
+      <c r="B12" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="150" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="150"/>
+      <c r="F12" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="100"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="80"/>
       <c r="J12" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="167"/>
-    </row>
-    <row r="13" spans="1:13" ht="23.35" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="147"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.5" customHeight="1">
       <c r="A13" s="72">
         <v>7</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100" t="s">
+      <c r="B13" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="150"/>
+      <c r="F13" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="80"/>
       <c r="J13" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="167"/>
-    </row>
-    <row r="14" spans="1:13" ht="23.35" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="147"/>
+    </row>
+    <row r="14" spans="1:13" ht="23.5" customHeight="1">
       <c r="A14" s="72">
         <v>8</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100" t="s">
+      <c r="B14" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="150" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="150"/>
+      <c r="F14" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="100"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="80"/>
       <c r="J14" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="167"/>
-    </row>
-    <row r="15" spans="1:13" ht="23.35" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="147"/>
+    </row>
+    <row r="15" spans="1:13" ht="23.5" customHeight="1">
       <c r="A15" s="72">
         <v>9</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="161" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100" t="s">
+      <c r="B15" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="150"/>
+      <c r="F15" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="100"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="80"/>
       <c r="J15" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="167"/>
-    </row>
-    <row r="16" spans="1:13" ht="23.35" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="147"/>
+    </row>
+    <row r="16" spans="1:13" ht="23.5" customHeight="1">
       <c r="A16" s="72">
         <v>10</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100" t="s">
+      <c r="B16" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="85"/>
+      <c r="D16" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="100"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="80"/>
       <c r="J16" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="167"/>
-    </row>
-    <row r="17" spans="1:13" ht="23.35" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="147"/>
+    </row>
+    <row r="17" spans="1:13" ht="23.5" customHeight="1">
       <c r="A17" s="72">
         <v>11</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100" t="s">
+      <c r="B17" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="100"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="80"/>
       <c r="J17" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="167"/>
+        <v>139</v>
+      </c>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="147"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
@@ -8346,11 +8344,62 @@
       <c r="I18" s="49"/>
       <c r="J18" s="50"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="163"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="K8:K17"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -8367,57 +8416,6 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="K8:K17"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
